--- a/AAII_Financials/Quarterly/GMAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GMAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>GMAB</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,91 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>384200</v>
+        <v>295600</v>
       </c>
       <c r="E8" s="3">
-        <v>338900</v>
+        <v>365400</v>
       </c>
       <c r="F8" s="3">
-        <v>289300</v>
+        <v>322300</v>
       </c>
       <c r="G8" s="3">
-        <v>231900</v>
+        <v>275100</v>
       </c>
       <c r="H8" s="3">
-        <v>299800</v>
+        <v>220600</v>
       </c>
       <c r="I8" s="3">
-        <v>252900</v>
+        <v>285200</v>
       </c>
       <c r="J8" s="3">
+        <v>240500</v>
+      </c>
+      <c r="K8" s="3">
         <v>799600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>130800</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>190400</v>
+        <v>160900</v>
       </c>
       <c r="E12" s="3">
-        <v>163400</v>
+        <v>181100</v>
       </c>
       <c r="F12" s="3">
-        <v>135100</v>
+        <v>155400</v>
       </c>
       <c r="G12" s="3">
-        <v>124400</v>
+        <v>128500</v>
       </c>
       <c r="H12" s="3">
-        <v>135800</v>
+        <v>118300</v>
       </c>
       <c r="I12" s="3">
-        <v>105800</v>
+        <v>129200</v>
       </c>
       <c r="J12" s="3">
+        <v>100600</v>
+      </c>
+      <c r="K12" s="3">
         <v>113700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>265500</v>
+        <v>223900</v>
       </c>
       <c r="E17" s="3">
-        <v>208300</v>
+        <v>252500</v>
       </c>
       <c r="F17" s="3">
-        <v>173800</v>
+        <v>198100</v>
       </c>
       <c r="G17" s="3">
-        <v>153900</v>
+        <v>165300</v>
       </c>
       <c r="H17" s="3">
-        <v>169700</v>
+        <v>146300</v>
       </c>
       <c r="I17" s="3">
-        <v>127000</v>
+        <v>161400</v>
       </c>
       <c r="J17" s="3">
+        <v>120800</v>
+      </c>
+      <c r="K17" s="3">
         <v>139900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>120400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>118700</v>
+        <v>71700</v>
       </c>
       <c r="E18" s="3">
-        <v>130600</v>
+        <v>112900</v>
       </c>
       <c r="F18" s="3">
-        <v>115400</v>
+        <v>124200</v>
       </c>
       <c r="G18" s="3">
-        <v>78000</v>
+        <v>109800</v>
       </c>
       <c r="H18" s="3">
-        <v>130100</v>
+        <v>74200</v>
       </c>
       <c r="I18" s="3">
-        <v>125900</v>
+        <v>123700</v>
       </c>
       <c r="J18" s="3">
+        <v>119700</v>
+      </c>
+      <c r="K18" s="3">
         <v>659700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,37 +1042,41 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>23500</v>
+        <v>14200</v>
       </c>
       <c r="E20" s="3">
+        <v>22300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>39800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>124900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="L20" s="3">
         <v>41800</v>
       </c>
-      <c r="F20" s="3">
-        <v>-53100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>131300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-48800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-27000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-24600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>41800</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,19 +1104,22 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>400</v>
       </c>
       <c r="G22" s="3">
         <v>400</v>
@@ -1091,71 +1131,80 @@
         <v>400</v>
       </c>
       <c r="J22" s="3">
+        <v>400</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>141700</v>
+        <v>85400</v>
       </c>
       <c r="E23" s="3">
-        <v>171800</v>
+        <v>134800</v>
       </c>
       <c r="F23" s="3">
-        <v>61900</v>
+        <v>163400</v>
       </c>
       <c r="G23" s="3">
-        <v>208900</v>
+        <v>58900</v>
       </c>
       <c r="H23" s="3">
-        <v>80800</v>
+        <v>198700</v>
       </c>
       <c r="I23" s="3">
-        <v>98400</v>
+        <v>76900</v>
       </c>
       <c r="J23" s="3">
+        <v>93600</v>
+      </c>
+      <c r="K23" s="3">
         <v>634900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>36700</v>
+        <v>20500</v>
       </c>
       <c r="E24" s="3">
-        <v>41200</v>
+        <v>34900</v>
       </c>
       <c r="F24" s="3">
-        <v>17000</v>
+        <v>39200</v>
       </c>
       <c r="G24" s="3">
-        <v>48100</v>
+        <v>16200</v>
       </c>
       <c r="H24" s="3">
-        <v>-4400</v>
+        <v>45800</v>
       </c>
       <c r="I24" s="3">
-        <v>20700</v>
+        <v>-4200</v>
       </c>
       <c r="J24" s="3">
+        <v>19700</v>
+      </c>
+      <c r="K24" s="3">
         <v>139400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>105000</v>
+        <v>64900</v>
       </c>
       <c r="E26" s="3">
-        <v>130600</v>
+        <v>99900</v>
       </c>
       <c r="F26" s="3">
-        <v>44900</v>
+        <v>124200</v>
       </c>
       <c r="G26" s="3">
-        <v>160800</v>
+        <v>42700</v>
       </c>
       <c r="H26" s="3">
-        <v>85200</v>
+        <v>152900</v>
       </c>
       <c r="I26" s="3">
-        <v>77700</v>
+        <v>81100</v>
       </c>
       <c r="J26" s="3">
+        <v>73900</v>
+      </c>
+      <c r="K26" s="3">
         <v>495500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>105000</v>
+        <v>64900</v>
       </c>
       <c r="E27" s="3">
-        <v>130600</v>
+        <v>99900</v>
       </c>
       <c r="F27" s="3">
-        <v>44900</v>
+        <v>124200</v>
       </c>
       <c r="G27" s="3">
-        <v>160800</v>
+        <v>42700</v>
       </c>
       <c r="H27" s="3">
-        <v>85200</v>
+        <v>152900</v>
       </c>
       <c r="I27" s="3">
-        <v>77700</v>
+        <v>81100</v>
       </c>
       <c r="J27" s="3">
+        <v>73900</v>
+      </c>
+      <c r="K27" s="3">
         <v>495500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-23500</v>
+        <v>-14200</v>
       </c>
       <c r="E32" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>50500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-124900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>46500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>25700</v>
+      </c>
+      <c r="K32" s="3">
+        <v>24600</v>
+      </c>
+      <c r="L32" s="3">
         <v>-41800</v>
       </c>
-      <c r="F32" s="3">
-        <v>53100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-131300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>48800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>27000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>24600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-41800</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>105000</v>
+        <v>64900</v>
       </c>
       <c r="E33" s="3">
-        <v>130600</v>
+        <v>99900</v>
       </c>
       <c r="F33" s="3">
-        <v>44900</v>
+        <v>124200</v>
       </c>
       <c r="G33" s="3">
-        <v>160800</v>
+        <v>42700</v>
       </c>
       <c r="H33" s="3">
-        <v>85200</v>
+        <v>152900</v>
       </c>
       <c r="I33" s="3">
-        <v>77700</v>
+        <v>81100</v>
       </c>
       <c r="J33" s="3">
+        <v>73900</v>
+      </c>
+      <c r="K33" s="3">
         <v>495500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>105000</v>
+        <v>64900</v>
       </c>
       <c r="E35" s="3">
-        <v>130600</v>
+        <v>99900</v>
       </c>
       <c r="F35" s="3">
-        <v>44900</v>
+        <v>124200</v>
       </c>
       <c r="G35" s="3">
-        <v>160800</v>
+        <v>42700</v>
       </c>
       <c r="H35" s="3">
-        <v>85200</v>
+        <v>152900</v>
       </c>
       <c r="I35" s="3">
-        <v>77700</v>
+        <v>81100</v>
       </c>
       <c r="J35" s="3">
+        <v>73900</v>
+      </c>
+      <c r="K35" s="3">
         <v>495500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,95 +1619,105 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1313900</v>
+        <v>1265500</v>
       </c>
       <c r="E41" s="3">
-        <v>1280500</v>
+        <v>1249600</v>
       </c>
       <c r="F41" s="3">
-        <v>1390200</v>
+        <v>1217800</v>
       </c>
       <c r="G41" s="3">
-        <v>1157700</v>
+        <v>1322100</v>
       </c>
       <c r="H41" s="3">
-        <v>1065000</v>
+        <v>1101000</v>
       </c>
       <c r="I41" s="3">
-        <v>1304400</v>
+        <v>1012800</v>
       </c>
       <c r="J41" s="3">
+        <v>1240500</v>
+      </c>
+      <c r="K41" s="3">
         <v>968900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>813100</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1522800</v>
+        <v>1523000</v>
       </c>
       <c r="E42" s="3">
-        <v>1469000</v>
+        <v>1448300</v>
       </c>
       <c r="F42" s="3">
-        <v>1231900</v>
+        <v>1397100</v>
       </c>
       <c r="G42" s="3">
-        <v>1494900</v>
+        <v>1171600</v>
       </c>
       <c r="H42" s="3">
-        <v>1293700</v>
+        <v>1421700</v>
       </c>
       <c r="I42" s="3">
-        <v>1258200</v>
+        <v>1230300</v>
       </c>
       <c r="J42" s="3">
+        <v>1196600</v>
+      </c>
+      <c r="K42" s="3">
         <v>906100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1088000</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>498500</v>
+        <v>444600</v>
       </c>
       <c r="E43" s="3">
-        <v>471000</v>
+        <v>474100</v>
       </c>
       <c r="F43" s="3">
-        <v>356300</v>
+        <v>448000</v>
       </c>
       <c r="G43" s="3">
-        <v>272000</v>
+        <v>338900</v>
       </c>
       <c r="H43" s="3">
-        <v>397800</v>
+        <v>258700</v>
       </c>
       <c r="I43" s="3">
-        <v>298500</v>
+        <v>378400</v>
       </c>
       <c r="J43" s="3">
+        <v>283900</v>
+      </c>
+      <c r="K43" s="3">
         <v>932800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1678,124 +1777,139 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3335100</v>
+        <v>3233100</v>
       </c>
       <c r="E46" s="3">
-        <v>3220400</v>
+        <v>3171900</v>
       </c>
       <c r="F46" s="3">
-        <v>2978400</v>
+        <v>3062800</v>
       </c>
       <c r="G46" s="3">
-        <v>2924600</v>
+        <v>2832600</v>
       </c>
       <c r="H46" s="3">
-        <v>2756500</v>
+        <v>2781400</v>
       </c>
       <c r="I46" s="3">
-        <v>2861000</v>
+        <v>2621500</v>
       </c>
       <c r="J46" s="3">
+        <v>2721000</v>
+      </c>
+      <c r="K46" s="3">
         <v>2807800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2066900</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>58400</v>
+        <v>37100</v>
       </c>
       <c r="E47" s="3">
-        <v>90900</v>
+        <v>55500</v>
       </c>
       <c r="F47" s="3">
-        <v>115300</v>
+        <v>86500</v>
       </c>
       <c r="G47" s="3">
-        <v>137400</v>
+        <v>109700</v>
       </c>
       <c r="H47" s="3">
-        <v>161500</v>
+        <v>130700</v>
       </c>
       <c r="I47" s="3">
-        <v>97800</v>
+        <v>153600</v>
       </c>
       <c r="J47" s="3">
+        <v>93100</v>
+      </c>
+      <c r="K47" s="3">
         <v>24100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>143000</v>
+        <v>136000</v>
       </c>
       <c r="E48" s="3">
-        <v>140400</v>
+        <v>136000</v>
       </c>
       <c r="F48" s="3">
-        <v>134800</v>
+        <v>133500</v>
       </c>
       <c r="G48" s="3">
-        <v>123500</v>
+        <v>128200</v>
       </c>
       <c r="H48" s="3">
-        <v>108000</v>
+        <v>117500</v>
       </c>
       <c r="I48" s="3">
-        <v>107100</v>
+        <v>102700</v>
       </c>
       <c r="J48" s="3">
+        <v>101800</v>
+      </c>
+      <c r="K48" s="3">
         <v>106500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>72000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>37300</v>
+        <v>32600</v>
       </c>
       <c r="E49" s="3">
-        <v>40300</v>
+        <v>35400</v>
       </c>
       <c r="F49" s="3">
-        <v>43600</v>
+        <v>38400</v>
       </c>
       <c r="G49" s="3">
-        <v>46500</v>
+        <v>41400</v>
       </c>
       <c r="H49" s="3">
-        <v>49600</v>
+        <v>44200</v>
       </c>
       <c r="I49" s="3">
-        <v>56500</v>
+        <v>47200</v>
       </c>
       <c r="J49" s="3">
+        <v>53700</v>
+      </c>
+      <c r="K49" s="3">
         <v>60600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>38700</v>
+        <v>36800</v>
       </c>
       <c r="E52" s="3">
-        <v>26300</v>
+        <v>36800</v>
       </c>
       <c r="F52" s="3">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="G52" s="3">
-        <v>26000</v>
+        <v>24700</v>
       </c>
       <c r="H52" s="3">
-        <v>26000</v>
+        <v>24700</v>
       </c>
       <c r="I52" s="3">
-        <v>34600</v>
+        <v>24700</v>
       </c>
       <c r="J52" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K52" s="3">
         <v>35100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3612500</v>
+        <v>3475800</v>
       </c>
       <c r="E54" s="3">
-        <v>3518400</v>
+        <v>3435700</v>
       </c>
       <c r="F54" s="3">
-        <v>3298000</v>
+        <v>3346100</v>
       </c>
       <c r="G54" s="3">
-        <v>3258000</v>
+        <v>3136600</v>
       </c>
       <c r="H54" s="3">
-        <v>3101500</v>
+        <v>3098500</v>
       </c>
       <c r="I54" s="3">
-        <v>3157100</v>
+        <v>2949700</v>
       </c>
       <c r="J54" s="3">
+        <v>3002500</v>
+      </c>
+      <c r="K54" s="3">
         <v>3034000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2244800</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1994,153 +2125,171 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9100</v>
+        <v>8400</v>
       </c>
       <c r="E58" s="3">
-        <v>9200</v>
+        <v>8600</v>
       </c>
       <c r="F58" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="G58" s="3">
-        <v>7600</v>
+        <v>8200</v>
       </c>
       <c r="H58" s="3">
-        <v>6200</v>
+        <v>7300</v>
       </c>
       <c r="I58" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="J58" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K58" s="3">
         <v>6300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>220900</v>
+        <v>178400</v>
       </c>
       <c r="E59" s="3">
-        <v>259200</v>
+        <v>210100</v>
       </c>
       <c r="F59" s="3">
-        <v>189500</v>
+        <v>246500</v>
       </c>
       <c r="G59" s="3">
-        <v>182000</v>
+        <v>180200</v>
       </c>
       <c r="H59" s="3">
-        <v>177600</v>
+        <v>173100</v>
       </c>
       <c r="I59" s="3">
-        <v>325100</v>
+        <v>168900</v>
       </c>
       <c r="J59" s="3">
+        <v>309200</v>
+      </c>
+      <c r="K59" s="3">
         <v>288400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>104700</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>230000</v>
+        <v>186800</v>
       </c>
       <c r="E60" s="3">
-        <v>268400</v>
+        <v>218800</v>
       </c>
       <c r="F60" s="3">
-        <v>198200</v>
+        <v>255300</v>
       </c>
       <c r="G60" s="3">
-        <v>189700</v>
+        <v>188500</v>
       </c>
       <c r="H60" s="3">
-        <v>183800</v>
+        <v>180400</v>
       </c>
       <c r="I60" s="3">
-        <v>331200</v>
+        <v>174800</v>
       </c>
       <c r="J60" s="3">
+        <v>315000</v>
+      </c>
+      <c r="K60" s="3">
         <v>294700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>108600</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>53200</v>
+        <v>49700</v>
       </c>
       <c r="E61" s="3">
-        <v>54900</v>
+        <v>50600</v>
       </c>
       <c r="F61" s="3">
-        <v>56300</v>
+        <v>52200</v>
       </c>
       <c r="G61" s="3">
-        <v>47800</v>
+        <v>53600</v>
       </c>
       <c r="H61" s="3">
-        <v>40600</v>
+        <v>45500</v>
       </c>
       <c r="I61" s="3">
-        <v>43300</v>
+        <v>38600</v>
       </c>
       <c r="J61" s="3">
+        <v>41200</v>
+      </c>
+      <c r="K61" s="3">
         <v>45900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>73300</v>
+        <v>69800</v>
       </c>
       <c r="E62" s="3">
-        <v>72800</v>
+        <v>69800</v>
       </c>
       <c r="F62" s="3">
-        <v>72800</v>
+        <v>69200</v>
       </c>
       <c r="G62" s="3">
-        <v>72800</v>
+        <v>69200</v>
       </c>
       <c r="H62" s="3">
-        <v>72200</v>
+        <v>69200</v>
       </c>
       <c r="I62" s="3">
-        <v>72200</v>
+        <v>68600</v>
       </c>
       <c r="J62" s="3">
+        <v>68600</v>
+      </c>
+      <c r="K62" s="3">
         <v>71900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>356600</v>
+        <v>306200</v>
       </c>
       <c r="E66" s="3">
-        <v>396100</v>
+        <v>339100</v>
       </c>
       <c r="F66" s="3">
-        <v>327300</v>
+        <v>376700</v>
       </c>
       <c r="G66" s="3">
-        <v>310200</v>
+        <v>311200</v>
       </c>
       <c r="H66" s="3">
-        <v>296600</v>
+        <v>295100</v>
       </c>
       <c r="I66" s="3">
-        <v>446700</v>
+        <v>282100</v>
       </c>
       <c r="J66" s="3">
+        <v>424800</v>
+      </c>
+      <c r="K66" s="3">
         <v>412500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>132800</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1469800</v>
+        <v>1480100</v>
       </c>
       <c r="E72" s="3">
-        <v>1352900</v>
+        <v>1397900</v>
       </c>
       <c r="F72" s="3">
-        <v>1197600</v>
+        <v>1286700</v>
       </c>
       <c r="G72" s="3">
-        <v>1176500</v>
+        <v>1139000</v>
       </c>
       <c r="H72" s="3">
-        <v>1050400</v>
+        <v>1118900</v>
       </c>
       <c r="I72" s="3">
-        <v>958900</v>
+        <v>999000</v>
       </c>
       <c r="J72" s="3">
+        <v>912000</v>
+      </c>
+      <c r="K72" s="3">
         <v>877200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>372200</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3255900</v>
+        <v>3169500</v>
       </c>
       <c r="E76" s="3">
-        <v>3122300</v>
+        <v>3096600</v>
       </c>
       <c r="F76" s="3">
-        <v>2970800</v>
+        <v>2969500</v>
       </c>
       <c r="G76" s="3">
-        <v>2947700</v>
+        <v>2825400</v>
       </c>
       <c r="H76" s="3">
-        <v>2804900</v>
+        <v>2803500</v>
       </c>
       <c r="I76" s="3">
-        <v>2710400</v>
+        <v>2667600</v>
       </c>
       <c r="J76" s="3">
+        <v>2577700</v>
+      </c>
+      <c r="K76" s="3">
         <v>2621500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2112000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>105000</v>
+        <v>64900</v>
       </c>
       <c r="E81" s="3">
-        <v>130600</v>
+        <v>99900</v>
       </c>
       <c r="F81" s="3">
-        <v>44900</v>
+        <v>124200</v>
       </c>
       <c r="G81" s="3">
-        <v>160800</v>
+        <v>42700</v>
       </c>
       <c r="H81" s="3">
-        <v>85200</v>
+        <v>152900</v>
       </c>
       <c r="I81" s="3">
-        <v>77700</v>
+        <v>81100</v>
       </c>
       <c r="J81" s="3">
+        <v>73900</v>
+      </c>
+      <c r="K81" s="3">
         <v>495500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>35400</v>
+        <v>81900</v>
       </c>
       <c r="E89" s="3">
-        <v>65600</v>
+        <v>33600</v>
       </c>
       <c r="F89" s="3">
-        <v>52100</v>
+        <v>62400</v>
       </c>
       <c r="G89" s="3">
-        <v>173800</v>
+        <v>49500</v>
       </c>
       <c r="H89" s="3">
-        <v>-117100</v>
+        <v>165300</v>
       </c>
       <c r="I89" s="3">
-        <v>744900</v>
+        <v>-111300</v>
       </c>
       <c r="J89" s="3">
+        <v>708400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-5700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>321500</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-10000</v>
+        <v>-8000</v>
       </c>
       <c r="E91" s="3">
-        <v>-11300</v>
+        <v>-9500</v>
       </c>
       <c r="F91" s="3">
-        <v>-11600</v>
+        <v>-10700</v>
       </c>
       <c r="G91" s="3">
-        <v>-4100</v>
+        <v>-11000</v>
       </c>
       <c r="H91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="L91" s="3">
         <v>-8500</v>
       </c>
-      <c r="I91" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-21300</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-8500</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-44900</v>
+        <v>-93100</v>
       </c>
       <c r="E94" s="3">
-        <v>-237800</v>
+        <v>-42700</v>
       </c>
       <c r="F94" s="3">
-        <v>226600</v>
+        <v>-226100</v>
       </c>
       <c r="G94" s="3">
-        <v>-84900</v>
+        <v>215500</v>
       </c>
       <c r="H94" s="3">
-        <v>-104700</v>
+        <v>-80800</v>
       </c>
       <c r="I94" s="3">
-        <v>-376300</v>
+        <v>-99600</v>
       </c>
       <c r="J94" s="3">
+        <v>-357800</v>
+      </c>
+      <c r="K94" s="3">
         <v>134800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3338,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2300</v>
+        <v>-8900</v>
       </c>
       <c r="E100" s="3">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="F100" s="3">
-        <v>-35200</v>
+        <v>3300</v>
       </c>
       <c r="G100" s="3">
-        <v>-32300</v>
+        <v>-33500</v>
       </c>
       <c r="H100" s="3">
-        <v>4800</v>
+        <v>-30700</v>
       </c>
       <c r="I100" s="3">
-        <v>2800</v>
+        <v>4600</v>
       </c>
       <c r="J100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>40600</v>
+        <v>36000</v>
       </c>
       <c r="E101" s="3">
-        <v>59000</v>
+        <v>38600</v>
       </c>
       <c r="F101" s="3">
-        <v>-11000</v>
+        <v>56100</v>
       </c>
       <c r="G101" s="3">
-        <v>36100</v>
+        <v>-10500</v>
       </c>
       <c r="H101" s="3">
-        <v>-22400</v>
+        <v>34300</v>
       </c>
       <c r="I101" s="3">
-        <v>-35900</v>
+        <v>-21300</v>
       </c>
       <c r="J101" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-14700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>33400</v>
+        <v>15900</v>
       </c>
       <c r="E102" s="3">
-        <v>-109700</v>
+        <v>31800</v>
       </c>
       <c r="F102" s="3">
-        <v>232500</v>
+        <v>-104400</v>
       </c>
       <c r="G102" s="3">
-        <v>92700</v>
+        <v>221100</v>
       </c>
       <c r="H102" s="3">
-        <v>-239400</v>
+        <v>88200</v>
       </c>
       <c r="I102" s="3">
-        <v>335500</v>
+        <v>-227700</v>
       </c>
       <c r="J102" s="3">
+        <v>319100</v>
+      </c>
+      <c r="K102" s="3">
         <v>115000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>332800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GMAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GMAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>GMAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,98 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>295600</v>
+        <v>424100</v>
       </c>
       <c r="E8" s="3">
-        <v>365400</v>
+        <v>284200</v>
       </c>
       <c r="F8" s="3">
-        <v>322300</v>
+        <v>351200</v>
       </c>
       <c r="G8" s="3">
-        <v>275100</v>
+        <v>309800</v>
       </c>
       <c r="H8" s="3">
-        <v>220600</v>
+        <v>264500</v>
       </c>
       <c r="I8" s="3">
-        <v>285200</v>
+        <v>212000</v>
       </c>
       <c r="J8" s="3">
+        <v>274100</v>
+      </c>
+      <c r="K8" s="3">
         <v>240500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>799600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>130800</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -780,8 +787,11 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,40 +839,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>160900</v>
+        <v>171900</v>
       </c>
       <c r="E12" s="3">
-        <v>181100</v>
+        <v>154600</v>
       </c>
       <c r="F12" s="3">
-        <v>155400</v>
+        <v>174100</v>
       </c>
       <c r="G12" s="3">
-        <v>128500</v>
+        <v>149400</v>
       </c>
       <c r="H12" s="3">
-        <v>118300</v>
+        <v>123500</v>
       </c>
       <c r="I12" s="3">
-        <v>129200</v>
+        <v>113700</v>
       </c>
       <c r="J12" s="3">
+        <v>124200</v>
+      </c>
+      <c r="K12" s="3">
         <v>100600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>113700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +942,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>223900</v>
+        <v>256800</v>
       </c>
       <c r="E17" s="3">
-        <v>252500</v>
+        <v>215200</v>
       </c>
       <c r="F17" s="3">
-        <v>198100</v>
+        <v>242700</v>
       </c>
       <c r="G17" s="3">
-        <v>165300</v>
+        <v>190400</v>
       </c>
       <c r="H17" s="3">
-        <v>146300</v>
+        <v>158900</v>
       </c>
       <c r="I17" s="3">
-        <v>161400</v>
+        <v>140700</v>
       </c>
       <c r="J17" s="3">
+        <v>155200</v>
+      </c>
+      <c r="K17" s="3">
         <v>120800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>139900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>120400</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>71700</v>
+        <v>167200</v>
       </c>
       <c r="E18" s="3">
-        <v>112900</v>
+        <v>68900</v>
       </c>
       <c r="F18" s="3">
-        <v>124200</v>
+        <v>108500</v>
       </c>
       <c r="G18" s="3">
-        <v>109800</v>
+        <v>119400</v>
       </c>
       <c r="H18" s="3">
-        <v>74200</v>
+        <v>105500</v>
       </c>
       <c r="I18" s="3">
-        <v>123700</v>
+        <v>71300</v>
       </c>
       <c r="J18" s="3">
+        <v>119000</v>
+      </c>
+      <c r="K18" s="3">
         <v>119700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>659700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,40 +1076,44 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>14200</v>
+        <v>167400</v>
       </c>
       <c r="E20" s="3">
-        <v>22300</v>
+        <v>13700</v>
       </c>
       <c r="F20" s="3">
-        <v>39800</v>
+        <v>21500</v>
       </c>
       <c r="G20" s="3">
-        <v>-50500</v>
+        <v>38200</v>
       </c>
       <c r="H20" s="3">
-        <v>124900</v>
+        <v>-48500</v>
       </c>
       <c r="I20" s="3">
-        <v>-46500</v>
+        <v>120000</v>
       </c>
       <c r="J20" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-25700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-24600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1107,22 +1144,25 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E22" s="3">
+        <v>500</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
-        <v>600</v>
-      </c>
       <c r="G22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H22" s="3">
         <v>400</v>
@@ -1134,77 +1174,86 @@
         <v>400</v>
       </c>
       <c r="K22" s="3">
+        <v>400</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>85400</v>
+        <v>333800</v>
       </c>
       <c r="E23" s="3">
-        <v>134800</v>
+        <v>82100</v>
       </c>
       <c r="F23" s="3">
-        <v>163400</v>
+        <v>129600</v>
       </c>
       <c r="G23" s="3">
-        <v>58900</v>
+        <v>157000</v>
       </c>
       <c r="H23" s="3">
-        <v>198700</v>
+        <v>56600</v>
       </c>
       <c r="I23" s="3">
-        <v>76900</v>
+        <v>191000</v>
       </c>
       <c r="J23" s="3">
+        <v>73900</v>
+      </c>
+      <c r="K23" s="3">
         <v>93600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>634900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>20500</v>
+        <v>80200</v>
       </c>
       <c r="E24" s="3">
-        <v>34900</v>
+        <v>19700</v>
       </c>
       <c r="F24" s="3">
-        <v>39200</v>
+        <v>33500</v>
       </c>
       <c r="G24" s="3">
-        <v>16200</v>
+        <v>37700</v>
       </c>
       <c r="H24" s="3">
-        <v>45800</v>
+        <v>15600</v>
       </c>
       <c r="I24" s="3">
-        <v>-4200</v>
+        <v>44000</v>
       </c>
       <c r="J24" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K24" s="3">
         <v>19700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>139400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>64900</v>
+        <v>253600</v>
       </c>
       <c r="E26" s="3">
-        <v>99900</v>
+        <v>62400</v>
       </c>
       <c r="F26" s="3">
-        <v>124200</v>
+        <v>96000</v>
       </c>
       <c r="G26" s="3">
-        <v>42700</v>
+        <v>119400</v>
       </c>
       <c r="H26" s="3">
-        <v>152900</v>
+        <v>41000</v>
       </c>
       <c r="I26" s="3">
-        <v>81100</v>
+        <v>147000</v>
       </c>
       <c r="J26" s="3">
+        <v>77900</v>
+      </c>
+      <c r="K26" s="3">
         <v>73900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>495500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>64900</v>
+        <v>253600</v>
       </c>
       <c r="E27" s="3">
-        <v>99900</v>
+        <v>62400</v>
       </c>
       <c r="F27" s="3">
-        <v>124200</v>
+        <v>96000</v>
       </c>
       <c r="G27" s="3">
-        <v>42700</v>
+        <v>119400</v>
       </c>
       <c r="H27" s="3">
-        <v>152900</v>
+        <v>41000</v>
       </c>
       <c r="I27" s="3">
-        <v>81100</v>
+        <v>147000</v>
       </c>
       <c r="J27" s="3">
+        <v>77900</v>
+      </c>
+      <c r="K27" s="3">
         <v>73900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>495500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-14200</v>
+        <v>-167400</v>
       </c>
       <c r="E32" s="3">
-        <v>-22300</v>
+        <v>-13700</v>
       </c>
       <c r="F32" s="3">
-        <v>-39800</v>
+        <v>-21500</v>
       </c>
       <c r="G32" s="3">
-        <v>50500</v>
+        <v>-38200</v>
       </c>
       <c r="H32" s="3">
-        <v>-124900</v>
+        <v>48500</v>
       </c>
       <c r="I32" s="3">
-        <v>46500</v>
+        <v>-120000</v>
       </c>
       <c r="J32" s="3">
+        <v>44700</v>
+      </c>
+      <c r="K32" s="3">
         <v>25700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>24600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-41800</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>64900</v>
+        <v>253600</v>
       </c>
       <c r="E33" s="3">
-        <v>99900</v>
+        <v>62400</v>
       </c>
       <c r="F33" s="3">
-        <v>124200</v>
+        <v>96000</v>
       </c>
       <c r="G33" s="3">
-        <v>42700</v>
+        <v>119400</v>
       </c>
       <c r="H33" s="3">
-        <v>152900</v>
+        <v>41000</v>
       </c>
       <c r="I33" s="3">
-        <v>81100</v>
+        <v>147000</v>
       </c>
       <c r="J33" s="3">
+        <v>77900</v>
+      </c>
+      <c r="K33" s="3">
         <v>73900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>495500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>64900</v>
+        <v>253600</v>
       </c>
       <c r="E35" s="3">
-        <v>99900</v>
+        <v>62400</v>
       </c>
       <c r="F35" s="3">
-        <v>124200</v>
+        <v>96000</v>
       </c>
       <c r="G35" s="3">
-        <v>42700</v>
+        <v>119400</v>
       </c>
       <c r="H35" s="3">
-        <v>152900</v>
+        <v>41000</v>
       </c>
       <c r="I35" s="3">
-        <v>81100</v>
+        <v>147000</v>
       </c>
       <c r="J35" s="3">
+        <v>77900</v>
+      </c>
+      <c r="K35" s="3">
         <v>73900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>495500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,104 +1706,114 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1265500</v>
+        <v>1316400</v>
       </c>
       <c r="E41" s="3">
-        <v>1249600</v>
+        <v>1216500</v>
       </c>
       <c r="F41" s="3">
-        <v>1217800</v>
+        <v>1201200</v>
       </c>
       <c r="G41" s="3">
-        <v>1322100</v>
+        <v>1170600</v>
       </c>
       <c r="H41" s="3">
-        <v>1101000</v>
+        <v>1271000</v>
       </c>
       <c r="I41" s="3">
-        <v>1012800</v>
+        <v>1058400</v>
       </c>
       <c r="J41" s="3">
+        <v>973600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1240500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>968900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>813100</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1523000</v>
+        <v>1582400</v>
       </c>
       <c r="E42" s="3">
-        <v>1448300</v>
+        <v>1464100</v>
       </c>
       <c r="F42" s="3">
-        <v>1397100</v>
+        <v>1392200</v>
       </c>
       <c r="G42" s="3">
-        <v>1171600</v>
+        <v>1343000</v>
       </c>
       <c r="H42" s="3">
-        <v>1421700</v>
+        <v>1126300</v>
       </c>
       <c r="I42" s="3">
-        <v>1230300</v>
+        <v>1366700</v>
       </c>
       <c r="J42" s="3">
+        <v>1182700</v>
+      </c>
+      <c r="K42" s="3">
         <v>1196600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>906100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1088000</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>444600</v>
+        <v>519800</v>
       </c>
       <c r="E43" s="3">
-        <v>474100</v>
+        <v>427400</v>
       </c>
       <c r="F43" s="3">
-        <v>448000</v>
+        <v>455700</v>
       </c>
       <c r="G43" s="3">
-        <v>338900</v>
+        <v>430600</v>
       </c>
       <c r="H43" s="3">
-        <v>258700</v>
+        <v>325800</v>
       </c>
       <c r="I43" s="3">
-        <v>378400</v>
+        <v>248600</v>
       </c>
       <c r="J43" s="3">
+        <v>363700</v>
+      </c>
+      <c r="K43" s="3">
         <v>283900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>932800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1844,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1780,136 +1879,151 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3233100</v>
+        <v>3418600</v>
       </c>
       <c r="E46" s="3">
-        <v>3171900</v>
+        <v>3108000</v>
       </c>
       <c r="F46" s="3">
-        <v>3062800</v>
+        <v>3049100</v>
       </c>
       <c r="G46" s="3">
-        <v>2832600</v>
+        <v>2944300</v>
       </c>
       <c r="H46" s="3">
-        <v>2781400</v>
+        <v>2723000</v>
       </c>
       <c r="I46" s="3">
-        <v>2621500</v>
+        <v>2673800</v>
       </c>
       <c r="J46" s="3">
+        <v>2520100</v>
+      </c>
+      <c r="K46" s="3">
         <v>2721000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2807800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2066900</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>37100</v>
+        <v>35800</v>
       </c>
       <c r="E47" s="3">
-        <v>55500</v>
+        <v>35700</v>
       </c>
       <c r="F47" s="3">
-        <v>86500</v>
+        <v>53400</v>
       </c>
       <c r="G47" s="3">
-        <v>109700</v>
+        <v>83100</v>
       </c>
       <c r="H47" s="3">
-        <v>130700</v>
+        <v>105400</v>
       </c>
       <c r="I47" s="3">
-        <v>153600</v>
+        <v>125700</v>
       </c>
       <c r="J47" s="3">
+        <v>147700</v>
+      </c>
+      <c r="K47" s="3">
         <v>93100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>24100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>136000</v>
+        <v>166000</v>
       </c>
       <c r="E48" s="3">
-        <v>136000</v>
+        <v>130800</v>
       </c>
       <c r="F48" s="3">
-        <v>133500</v>
+        <v>130800</v>
       </c>
       <c r="G48" s="3">
-        <v>128200</v>
+        <v>128300</v>
       </c>
       <c r="H48" s="3">
-        <v>117500</v>
+        <v>123200</v>
       </c>
       <c r="I48" s="3">
-        <v>102700</v>
+        <v>112900</v>
       </c>
       <c r="J48" s="3">
+        <v>98700</v>
+      </c>
+      <c r="K48" s="3">
         <v>101800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>106500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>72000</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>32600</v>
+        <v>29000</v>
       </c>
       <c r="E49" s="3">
-        <v>35400</v>
+        <v>31400</v>
       </c>
       <c r="F49" s="3">
-        <v>38400</v>
+        <v>34100</v>
       </c>
       <c r="G49" s="3">
-        <v>41400</v>
+        <v>36900</v>
       </c>
       <c r="H49" s="3">
-        <v>44200</v>
+        <v>39800</v>
       </c>
       <c r="I49" s="3">
-        <v>47200</v>
+        <v>42500</v>
       </c>
       <c r="J49" s="3">
+        <v>45300</v>
+      </c>
+      <c r="K49" s="3">
         <v>53700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>60600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2089,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>36800</v>
+        <v>35400</v>
       </c>
       <c r="E52" s="3">
-        <v>36800</v>
+        <v>35400</v>
       </c>
       <c r="F52" s="3">
-        <v>25000</v>
+        <v>35400</v>
       </c>
       <c r="G52" s="3">
-        <v>24700</v>
+        <v>24000</v>
       </c>
       <c r="H52" s="3">
-        <v>24700</v>
+        <v>23700</v>
       </c>
       <c r="I52" s="3">
-        <v>24700</v>
+        <v>23700</v>
       </c>
       <c r="J52" s="3">
+        <v>23700</v>
+      </c>
+      <c r="K52" s="3">
         <v>32900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>35100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3475800</v>
+        <v>3684800</v>
       </c>
       <c r="E54" s="3">
-        <v>3435700</v>
+        <v>3341200</v>
       </c>
       <c r="F54" s="3">
-        <v>3346100</v>
+        <v>3302700</v>
       </c>
       <c r="G54" s="3">
-        <v>3136600</v>
+        <v>3216600</v>
       </c>
       <c r="H54" s="3">
-        <v>3098500</v>
+        <v>3015200</v>
       </c>
       <c r="I54" s="3">
-        <v>2949700</v>
+        <v>2978600</v>
       </c>
       <c r="J54" s="3">
+        <v>2835500</v>
+      </c>
+      <c r="K54" s="3">
         <v>3002500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3034000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2244800</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2226,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2128,168 +2259,186 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>8300</v>
+      </c>
+      <c r="G58" s="3">
         <v>8400</v>
       </c>
-      <c r="E58" s="3">
-        <v>8600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>8800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>8200</v>
-      </c>
       <c r="H58" s="3">
-        <v>7300</v>
+        <v>7900</v>
       </c>
       <c r="I58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K58" s="3">
         <v>5900</v>
       </c>
-      <c r="J58" s="3">
-        <v>5900</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>178400</v>
+        <v>250000</v>
       </c>
       <c r="E59" s="3">
-        <v>210100</v>
+        <v>171500</v>
       </c>
       <c r="F59" s="3">
-        <v>246500</v>
+        <v>202000</v>
       </c>
       <c r="G59" s="3">
-        <v>180200</v>
+        <v>237000</v>
       </c>
       <c r="H59" s="3">
-        <v>173100</v>
+        <v>173300</v>
       </c>
       <c r="I59" s="3">
-        <v>168900</v>
+        <v>166400</v>
       </c>
       <c r="J59" s="3">
+        <v>162400</v>
+      </c>
+      <c r="K59" s="3">
         <v>309200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>288400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>104700</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>186800</v>
+        <v>260700</v>
       </c>
       <c r="E60" s="3">
-        <v>218800</v>
+        <v>179600</v>
       </c>
       <c r="F60" s="3">
-        <v>255300</v>
+        <v>210300</v>
       </c>
       <c r="G60" s="3">
-        <v>188500</v>
+        <v>245400</v>
       </c>
       <c r="H60" s="3">
-        <v>180400</v>
+        <v>181200</v>
       </c>
       <c r="I60" s="3">
-        <v>174800</v>
+        <v>173400</v>
       </c>
       <c r="J60" s="3">
+        <v>168000</v>
+      </c>
+      <c r="K60" s="3">
         <v>315000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>294700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>108600</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>49700</v>
+        <v>74300</v>
       </c>
       <c r="E61" s="3">
-        <v>50600</v>
+        <v>47700</v>
       </c>
       <c r="F61" s="3">
-        <v>52200</v>
+        <v>48700</v>
       </c>
       <c r="G61" s="3">
-        <v>53600</v>
+        <v>50200</v>
       </c>
       <c r="H61" s="3">
-        <v>45500</v>
+        <v>51500</v>
       </c>
       <c r="I61" s="3">
-        <v>38600</v>
+        <v>43700</v>
       </c>
       <c r="J61" s="3">
+        <v>37100</v>
+      </c>
+      <c r="K61" s="3">
         <v>41200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>45900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>69800</v>
+        <v>66500</v>
       </c>
       <c r="E62" s="3">
-        <v>69800</v>
+        <v>67100</v>
       </c>
       <c r="F62" s="3">
-        <v>69200</v>
+        <v>67100</v>
       </c>
       <c r="G62" s="3">
-        <v>69200</v>
+        <v>66500</v>
       </c>
       <c r="H62" s="3">
-        <v>69200</v>
+        <v>66500</v>
       </c>
       <c r="I62" s="3">
+        <v>66500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>66000</v>
+      </c>
+      <c r="K62" s="3">
         <v>68600</v>
       </c>
-      <c r="J62" s="3">
-        <v>68600</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>71900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>306200</v>
+        <v>401500</v>
       </c>
       <c r="E66" s="3">
-        <v>339100</v>
+        <v>294400</v>
       </c>
       <c r="F66" s="3">
-        <v>376700</v>
+        <v>326000</v>
       </c>
       <c r="G66" s="3">
-        <v>311200</v>
+        <v>362100</v>
       </c>
       <c r="H66" s="3">
-        <v>295100</v>
+        <v>299200</v>
       </c>
       <c r="I66" s="3">
-        <v>282100</v>
+        <v>283600</v>
       </c>
       <c r="J66" s="3">
+        <v>271200</v>
+      </c>
+      <c r="K66" s="3">
         <v>424800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>412500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>132800</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1480100</v>
+        <v>1641900</v>
       </c>
       <c r="E72" s="3">
-        <v>1397900</v>
+        <v>1422800</v>
       </c>
       <c r="F72" s="3">
-        <v>1286700</v>
+        <v>1343800</v>
       </c>
       <c r="G72" s="3">
-        <v>1139000</v>
+        <v>1236900</v>
       </c>
       <c r="H72" s="3">
-        <v>1118900</v>
+        <v>1094900</v>
       </c>
       <c r="I72" s="3">
-        <v>999000</v>
+        <v>1075600</v>
       </c>
       <c r="J72" s="3">
+        <v>960400</v>
+      </c>
+      <c r="K72" s="3">
         <v>912000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>877200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>372200</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3169500</v>
+        <v>3283300</v>
       </c>
       <c r="E76" s="3">
-        <v>3096600</v>
+        <v>3046800</v>
       </c>
       <c r="F76" s="3">
-        <v>2969500</v>
+        <v>2976700</v>
       </c>
       <c r="G76" s="3">
-        <v>2825400</v>
+        <v>2854500</v>
       </c>
       <c r="H76" s="3">
-        <v>2803500</v>
+        <v>2716000</v>
       </c>
       <c r="I76" s="3">
-        <v>2667600</v>
+        <v>2694900</v>
       </c>
       <c r="J76" s="3">
+        <v>2564300</v>
+      </c>
+      <c r="K76" s="3">
         <v>2577700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2621500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2112000</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>64900</v>
+        <v>253600</v>
       </c>
       <c r="E81" s="3">
-        <v>99900</v>
+        <v>62400</v>
       </c>
       <c r="F81" s="3">
-        <v>124200</v>
+        <v>96000</v>
       </c>
       <c r="G81" s="3">
-        <v>42700</v>
+        <v>119400</v>
       </c>
       <c r="H81" s="3">
-        <v>152900</v>
+        <v>41000</v>
       </c>
       <c r="I81" s="3">
-        <v>81100</v>
+        <v>147000</v>
       </c>
       <c r="J81" s="3">
+        <v>77900</v>
+      </c>
+      <c r="K81" s="3">
         <v>73900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>495500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3031,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>81900</v>
+        <v>128600</v>
       </c>
       <c r="E89" s="3">
-        <v>33600</v>
+        <v>78700</v>
       </c>
       <c r="F89" s="3">
-        <v>62400</v>
+        <v>32300</v>
       </c>
       <c r="G89" s="3">
-        <v>49500</v>
+        <v>59900</v>
       </c>
       <c r="H89" s="3">
-        <v>165300</v>
+        <v>47600</v>
       </c>
       <c r="I89" s="3">
-        <v>-111300</v>
+        <v>158900</v>
       </c>
       <c r="J89" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="K89" s="3">
         <v>708400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>321500</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3291,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8000</v>
+        <v>-9100</v>
       </c>
       <c r="E91" s="3">
-        <v>-9500</v>
+        <v>-7600</v>
       </c>
       <c r="F91" s="3">
-        <v>-10700</v>
+        <v>-9100</v>
       </c>
       <c r="G91" s="3">
-        <v>-11000</v>
+        <v>-10300</v>
       </c>
       <c r="H91" s="3">
-        <v>-3900</v>
+        <v>-10600</v>
       </c>
       <c r="I91" s="3">
-        <v>-8100</v>
+        <v>-3800</v>
       </c>
       <c r="J91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-6400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-21300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-93100</v>
+        <v>-77200</v>
       </c>
       <c r="E94" s="3">
-        <v>-42700</v>
+        <v>-89500</v>
       </c>
       <c r="F94" s="3">
-        <v>-226100</v>
+        <v>-41000</v>
       </c>
       <c r="G94" s="3">
-        <v>215500</v>
+        <v>-217400</v>
       </c>
       <c r="H94" s="3">
-        <v>-80800</v>
+        <v>207200</v>
       </c>
       <c r="I94" s="3">
-        <v>-99600</v>
+        <v>-77600</v>
       </c>
       <c r="J94" s="3">
+        <v>-95800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-357800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>134800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,100 +3584,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8900</v>
+        <v>-28700</v>
       </c>
       <c r="E100" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F100" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L100" s="3">
+        <v>600</v>
+      </c>
+      <c r="M100" s="3">
         <v>2200</v>
       </c>
-      <c r="F100" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-33500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-30700</v>
-      </c>
-      <c r="I100" s="3">
-        <v>4600</v>
-      </c>
-      <c r="J100" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K100" s="3">
-        <v>600</v>
-      </c>
-      <c r="L100" s="3">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>36000</v>
+        <v>77200</v>
       </c>
       <c r="E101" s="3">
-        <v>38600</v>
+        <v>34600</v>
       </c>
       <c r="F101" s="3">
-        <v>56100</v>
+        <v>37100</v>
       </c>
       <c r="G101" s="3">
-        <v>-10500</v>
+        <v>53900</v>
       </c>
       <c r="H101" s="3">
-        <v>34300</v>
+        <v>-10100</v>
       </c>
       <c r="I101" s="3">
-        <v>-21300</v>
+        <v>33000</v>
       </c>
       <c r="J101" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-34200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-14700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>15900</v>
+        <v>99900</v>
       </c>
       <c r="E102" s="3">
-        <v>31800</v>
+        <v>15300</v>
       </c>
       <c r="F102" s="3">
-        <v>-104400</v>
+        <v>30600</v>
       </c>
       <c r="G102" s="3">
-        <v>221100</v>
+        <v>-100300</v>
       </c>
       <c r="H102" s="3">
-        <v>88200</v>
+        <v>212600</v>
       </c>
       <c r="I102" s="3">
-        <v>-227700</v>
+        <v>84800</v>
       </c>
       <c r="J102" s="3">
+        <v>-218900</v>
+      </c>
+      <c r="K102" s="3">
         <v>319100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>115000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>332800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GMAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GMAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>GMAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,105 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>424100</v>
+        <v>560900</v>
       </c>
       <c r="E8" s="3">
-        <v>284200</v>
+        <v>434000</v>
       </c>
       <c r="F8" s="3">
-        <v>351200</v>
+        <v>290800</v>
       </c>
       <c r="G8" s="3">
-        <v>309800</v>
+        <v>359500</v>
       </c>
       <c r="H8" s="3">
-        <v>264500</v>
+        <v>317000</v>
       </c>
       <c r="I8" s="3">
-        <v>212000</v>
+        <v>270700</v>
       </c>
       <c r="J8" s="3">
+        <v>217000</v>
+      </c>
+      <c r="K8" s="3">
         <v>274100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>240500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>799600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>130800</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -790,8 +797,11 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>171900</v>
+        <v>204000</v>
       </c>
       <c r="E12" s="3">
-        <v>154600</v>
+        <v>176000</v>
       </c>
       <c r="F12" s="3">
-        <v>174100</v>
+        <v>158200</v>
       </c>
       <c r="G12" s="3">
-        <v>149400</v>
+        <v>178200</v>
       </c>
       <c r="H12" s="3">
-        <v>123500</v>
+        <v>152900</v>
       </c>
       <c r="I12" s="3">
+        <v>126400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>116400</v>
+      </c>
+      <c r="K12" s="3">
+        <v>124200</v>
+      </c>
+      <c r="L12" s="3">
+        <v>100600</v>
+      </c>
+      <c r="M12" s="3">
         <v>113700</v>
       </c>
-      <c r="J12" s="3">
-        <v>124200</v>
-      </c>
-      <c r="K12" s="3">
-        <v>100600</v>
-      </c>
-      <c r="L12" s="3">
-        <v>113700</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>256800</v>
+        <v>295900</v>
       </c>
       <c r="E17" s="3">
-        <v>215200</v>
+        <v>262800</v>
       </c>
       <c r="F17" s="3">
-        <v>242700</v>
+        <v>220300</v>
       </c>
       <c r="G17" s="3">
-        <v>190400</v>
+        <v>248400</v>
       </c>
       <c r="H17" s="3">
-        <v>158900</v>
+        <v>194900</v>
       </c>
       <c r="I17" s="3">
-        <v>140700</v>
+        <v>162600</v>
       </c>
       <c r="J17" s="3">
+        <v>144000</v>
+      </c>
+      <c r="K17" s="3">
         <v>155200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>120800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>139900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>120400</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>167200</v>
+        <v>265000</v>
       </c>
       <c r="E18" s="3">
-        <v>68900</v>
+        <v>171200</v>
       </c>
       <c r="F18" s="3">
-        <v>108500</v>
+        <v>70500</v>
       </c>
       <c r="G18" s="3">
-        <v>119400</v>
+        <v>111000</v>
       </c>
       <c r="H18" s="3">
-        <v>105500</v>
+        <v>122200</v>
       </c>
       <c r="I18" s="3">
-        <v>71300</v>
+        <v>108000</v>
       </c>
       <c r="J18" s="3">
+        <v>73000</v>
+      </c>
+      <c r="K18" s="3">
         <v>119000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>119700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>659700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,43 +1110,47 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>167400</v>
+        <v>184900</v>
       </c>
       <c r="E20" s="3">
-        <v>13700</v>
+        <v>171300</v>
       </c>
       <c r="F20" s="3">
-        <v>21500</v>
+        <v>14000</v>
       </c>
       <c r="G20" s="3">
-        <v>38200</v>
+        <v>22000</v>
       </c>
       <c r="H20" s="3">
-        <v>-48500</v>
+        <v>39100</v>
       </c>
       <c r="I20" s="3">
-        <v>120000</v>
+        <v>-49700</v>
       </c>
       <c r="J20" s="3">
+        <v>122800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-44700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-25700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-24600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1147,8 +1184,11 @@
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1156,16 +1196,16 @@
         <v>800</v>
       </c>
       <c r="E22" s="3">
+        <v>800</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>400</v>
       </c>
       <c r="I22" s="3">
         <v>400</v>
@@ -1177,83 +1217,92 @@
         <v>400</v>
       </c>
       <c r="L22" s="3">
+        <v>400</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>333800</v>
+        <v>449100</v>
       </c>
       <c r="E23" s="3">
-        <v>82100</v>
+        <v>341600</v>
       </c>
       <c r="F23" s="3">
-        <v>129600</v>
+        <v>84000</v>
       </c>
       <c r="G23" s="3">
-        <v>157000</v>
+        <v>132600</v>
       </c>
       <c r="H23" s="3">
-        <v>56600</v>
+        <v>160700</v>
       </c>
       <c r="I23" s="3">
-        <v>191000</v>
+        <v>57900</v>
       </c>
       <c r="J23" s="3">
+        <v>195400</v>
+      </c>
+      <c r="K23" s="3">
         <v>73900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>93600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>634900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>80200</v>
+        <v>94700</v>
       </c>
       <c r="E24" s="3">
+        <v>82100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>20200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>34300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>38600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>15900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>45000</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="L24" s="3">
         <v>19700</v>
       </c>
-      <c r="F24" s="3">
-        <v>33500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>37700</v>
-      </c>
-      <c r="H24" s="3">
-        <v>15600</v>
-      </c>
-      <c r="I24" s="3">
-        <v>44000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>19700</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>139400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>253600</v>
+        <v>354400</v>
       </c>
       <c r="E26" s="3">
-        <v>62400</v>
+        <v>259500</v>
       </c>
       <c r="F26" s="3">
-        <v>96000</v>
+        <v>63800</v>
       </c>
       <c r="G26" s="3">
-        <v>119400</v>
+        <v>98300</v>
       </c>
       <c r="H26" s="3">
-        <v>41000</v>
+        <v>122200</v>
       </c>
       <c r="I26" s="3">
-        <v>147000</v>
+        <v>42000</v>
       </c>
       <c r="J26" s="3">
+        <v>150400</v>
+      </c>
+      <c r="K26" s="3">
         <v>77900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>73900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>495500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>253600</v>
+        <v>354400</v>
       </c>
       <c r="E27" s="3">
-        <v>62400</v>
+        <v>259500</v>
       </c>
       <c r="F27" s="3">
-        <v>96000</v>
+        <v>63800</v>
       </c>
       <c r="G27" s="3">
-        <v>119400</v>
+        <v>98300</v>
       </c>
       <c r="H27" s="3">
-        <v>41000</v>
+        <v>122200</v>
       </c>
       <c r="I27" s="3">
-        <v>147000</v>
+        <v>42000</v>
       </c>
       <c r="J27" s="3">
+        <v>150400</v>
+      </c>
+      <c r="K27" s="3">
         <v>77900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>73900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>495500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-167400</v>
+        <v>-184900</v>
       </c>
       <c r="E32" s="3">
-        <v>-13700</v>
+        <v>-171300</v>
       </c>
       <c r="F32" s="3">
-        <v>-21500</v>
+        <v>-14000</v>
       </c>
       <c r="G32" s="3">
-        <v>-38200</v>
+        <v>-22000</v>
       </c>
       <c r="H32" s="3">
-        <v>48500</v>
+        <v>-39100</v>
       </c>
       <c r="I32" s="3">
-        <v>-120000</v>
+        <v>49700</v>
       </c>
       <c r="J32" s="3">
+        <v>-122800</v>
+      </c>
+      <c r="K32" s="3">
         <v>44700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>25700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>24600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-41800</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>253600</v>
+        <v>354400</v>
       </c>
       <c r="E33" s="3">
-        <v>62400</v>
+        <v>259500</v>
       </c>
       <c r="F33" s="3">
-        <v>96000</v>
+        <v>63800</v>
       </c>
       <c r="G33" s="3">
-        <v>119400</v>
+        <v>98300</v>
       </c>
       <c r="H33" s="3">
-        <v>41000</v>
+        <v>122200</v>
       </c>
       <c r="I33" s="3">
-        <v>147000</v>
+        <v>42000</v>
       </c>
       <c r="J33" s="3">
+        <v>150400</v>
+      </c>
+      <c r="K33" s="3">
         <v>77900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>73900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>495500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>253600</v>
+        <v>354400</v>
       </c>
       <c r="E35" s="3">
-        <v>62400</v>
+        <v>259500</v>
       </c>
       <c r="F35" s="3">
-        <v>96000</v>
+        <v>63800</v>
       </c>
       <c r="G35" s="3">
-        <v>119400</v>
+        <v>98300</v>
       </c>
       <c r="H35" s="3">
-        <v>41000</v>
+        <v>122200</v>
       </c>
       <c r="I35" s="3">
-        <v>147000</v>
+        <v>42000</v>
       </c>
       <c r="J35" s="3">
+        <v>150400</v>
+      </c>
+      <c r="K35" s="3">
         <v>77900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>73900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>495500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,113 +1793,123 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1316400</v>
+        <v>1424200</v>
       </c>
       <c r="E41" s="3">
-        <v>1216500</v>
+        <v>1347200</v>
       </c>
       <c r="F41" s="3">
-        <v>1201200</v>
+        <v>1245000</v>
       </c>
       <c r="G41" s="3">
-        <v>1170600</v>
+        <v>1229300</v>
       </c>
       <c r="H41" s="3">
-        <v>1271000</v>
+        <v>1198100</v>
       </c>
       <c r="I41" s="3">
-        <v>1058400</v>
+        <v>1300700</v>
       </c>
       <c r="J41" s="3">
+        <v>1083200</v>
+      </c>
+      <c r="K41" s="3">
         <v>973600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1240500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>968900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>813100</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1582400</v>
+        <v>1840700</v>
       </c>
       <c r="E42" s="3">
-        <v>1464100</v>
+        <v>1619400</v>
       </c>
       <c r="F42" s="3">
-        <v>1392200</v>
+        <v>1498400</v>
       </c>
       <c r="G42" s="3">
-        <v>1343000</v>
+        <v>1424800</v>
       </c>
       <c r="H42" s="3">
-        <v>1126300</v>
+        <v>1374400</v>
       </c>
       <c r="I42" s="3">
-        <v>1366700</v>
+        <v>1152600</v>
       </c>
       <c r="J42" s="3">
+        <v>1398700</v>
+      </c>
+      <c r="K42" s="3">
         <v>1182700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1196600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>906100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1088000</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>519800</v>
+        <v>679500</v>
       </c>
       <c r="E43" s="3">
-        <v>427400</v>
+        <v>532000</v>
       </c>
       <c r="F43" s="3">
-        <v>455700</v>
+        <v>437400</v>
       </c>
       <c r="G43" s="3">
-        <v>430600</v>
+        <v>466400</v>
       </c>
       <c r="H43" s="3">
-        <v>325800</v>
+        <v>440700</v>
       </c>
       <c r="I43" s="3">
-        <v>248600</v>
+        <v>333400</v>
       </c>
       <c r="J43" s="3">
+        <v>254500</v>
+      </c>
+      <c r="K43" s="3">
         <v>363700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>283900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>932800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +1943,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1882,148 +1981,163 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3418600</v>
+        <v>3944400</v>
       </c>
       <c r="E46" s="3">
-        <v>3108000</v>
+        <v>3498600</v>
       </c>
       <c r="F46" s="3">
-        <v>3049100</v>
+        <v>3180800</v>
       </c>
       <c r="G46" s="3">
-        <v>2944300</v>
+        <v>3120500</v>
       </c>
       <c r="H46" s="3">
-        <v>2723000</v>
+        <v>3013200</v>
       </c>
       <c r="I46" s="3">
-        <v>2673800</v>
+        <v>2786700</v>
       </c>
       <c r="J46" s="3">
+        <v>2736400</v>
+      </c>
+      <c r="K46" s="3">
         <v>2520100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2721000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2807800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2066900</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>35800</v>
+        <v>26600</v>
       </c>
       <c r="E47" s="3">
-        <v>35700</v>
+        <v>36600</v>
       </c>
       <c r="F47" s="3">
-        <v>53400</v>
+        <v>36500</v>
       </c>
       <c r="G47" s="3">
-        <v>83100</v>
+        <v>54600</v>
       </c>
       <c r="H47" s="3">
-        <v>105400</v>
+        <v>85100</v>
       </c>
       <c r="I47" s="3">
-        <v>125700</v>
+        <v>107900</v>
       </c>
       <c r="J47" s="3">
+        <v>128600</v>
+      </c>
+      <c r="K47" s="3">
         <v>147700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>93100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>24100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>166000</v>
+        <v>176900</v>
       </c>
       <c r="E48" s="3">
-        <v>130800</v>
+        <v>169900</v>
       </c>
       <c r="F48" s="3">
-        <v>130800</v>
+        <v>133800</v>
       </c>
       <c r="G48" s="3">
-        <v>128300</v>
+        <v>133800</v>
       </c>
       <c r="H48" s="3">
-        <v>123200</v>
+        <v>131300</v>
       </c>
       <c r="I48" s="3">
-        <v>112900</v>
+        <v>126100</v>
       </c>
       <c r="J48" s="3">
+        <v>115600</v>
+      </c>
+      <c r="K48" s="3">
         <v>98700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>101800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>106500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>72000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>29000</v>
+        <v>27500</v>
       </c>
       <c r="E49" s="3">
-        <v>31400</v>
+        <v>29600</v>
       </c>
       <c r="F49" s="3">
-        <v>34100</v>
+        <v>32100</v>
       </c>
       <c r="G49" s="3">
-        <v>36900</v>
+        <v>34900</v>
       </c>
       <c r="H49" s="3">
-        <v>39800</v>
+        <v>37700</v>
       </c>
       <c r="I49" s="3">
-        <v>42500</v>
+        <v>40800</v>
       </c>
       <c r="J49" s="3">
+        <v>43500</v>
+      </c>
+      <c r="K49" s="3">
         <v>45300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>53700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>60600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>35400</v>
+        <v>36200</v>
       </c>
       <c r="E52" s="3">
-        <v>35400</v>
+        <v>36200</v>
       </c>
       <c r="F52" s="3">
-        <v>35400</v>
+        <v>36200</v>
       </c>
       <c r="G52" s="3">
-        <v>24000</v>
+        <v>36200</v>
       </c>
       <c r="H52" s="3">
+        <v>24600</v>
+      </c>
+      <c r="I52" s="3">
+        <v>24300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>24300</v>
+      </c>
+      <c r="K52" s="3">
         <v>23700</v>
       </c>
-      <c r="I52" s="3">
-        <v>23700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>23700</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>32900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>35100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3684800</v>
+        <v>4211700</v>
       </c>
       <c r="E54" s="3">
-        <v>3341200</v>
+        <v>3771100</v>
       </c>
       <c r="F54" s="3">
-        <v>3302700</v>
+        <v>3419400</v>
       </c>
       <c r="G54" s="3">
-        <v>3216600</v>
+        <v>3380100</v>
       </c>
       <c r="H54" s="3">
-        <v>3015200</v>
+        <v>3291900</v>
       </c>
       <c r="I54" s="3">
-        <v>2978600</v>
+        <v>3085800</v>
       </c>
       <c r="J54" s="3">
+        <v>3048300</v>
+      </c>
+      <c r="K54" s="3">
         <v>2835500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3002500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3034000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2244800</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2357,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2262,183 +2393,201 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="E58" s="3">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="F58" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="G58" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="H58" s="3">
-        <v>7900</v>
+        <v>8600</v>
       </c>
       <c r="I58" s="3">
-        <v>7000</v>
+        <v>8100</v>
       </c>
       <c r="J58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K58" s="3">
         <v>5600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>250000</v>
+        <v>399300</v>
       </c>
       <c r="E59" s="3">
-        <v>171500</v>
+        <v>255800</v>
       </c>
       <c r="F59" s="3">
-        <v>202000</v>
+        <v>175500</v>
       </c>
       <c r="G59" s="3">
-        <v>237000</v>
+        <v>206700</v>
       </c>
       <c r="H59" s="3">
-        <v>173300</v>
+        <v>242500</v>
       </c>
       <c r="I59" s="3">
-        <v>166400</v>
+        <v>177300</v>
       </c>
       <c r="J59" s="3">
+        <v>170300</v>
+      </c>
+      <c r="K59" s="3">
         <v>162400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>309200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>288400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>104700</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>260700</v>
+        <v>410100</v>
       </c>
       <c r="E60" s="3">
-        <v>179600</v>
+        <v>266800</v>
       </c>
       <c r="F60" s="3">
-        <v>210300</v>
+        <v>183800</v>
       </c>
       <c r="G60" s="3">
-        <v>245400</v>
+        <v>215200</v>
       </c>
       <c r="H60" s="3">
-        <v>181200</v>
+        <v>251200</v>
       </c>
       <c r="I60" s="3">
-        <v>173400</v>
+        <v>185400</v>
       </c>
       <c r="J60" s="3">
+        <v>177500</v>
+      </c>
+      <c r="K60" s="3">
         <v>168000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>315000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>294700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>108600</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>74300</v>
+        <v>75500</v>
       </c>
       <c r="E61" s="3">
-        <v>47700</v>
+        <v>76000</v>
       </c>
       <c r="F61" s="3">
-        <v>48700</v>
+        <v>48900</v>
       </c>
       <c r="G61" s="3">
-        <v>50200</v>
+        <v>49800</v>
       </c>
       <c r="H61" s="3">
-        <v>51500</v>
+        <v>51300</v>
       </c>
       <c r="I61" s="3">
-        <v>43700</v>
+        <v>52700</v>
       </c>
       <c r="J61" s="3">
+        <v>44700</v>
+      </c>
+      <c r="K61" s="3">
         <v>37100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>41200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>45900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>66500</v>
+        <v>67400</v>
       </c>
       <c r="E62" s="3">
-        <v>67100</v>
+        <v>68100</v>
       </c>
       <c r="F62" s="3">
-        <v>67100</v>
+        <v>68600</v>
       </c>
       <c r="G62" s="3">
-        <v>66500</v>
+        <v>68600</v>
       </c>
       <c r="H62" s="3">
-        <v>66500</v>
+        <v>68100</v>
       </c>
       <c r="I62" s="3">
-        <v>66500</v>
+        <v>68100</v>
       </c>
       <c r="J62" s="3">
+        <v>68100</v>
+      </c>
+      <c r="K62" s="3">
         <v>66000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>68600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>71900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>401500</v>
+        <v>553000</v>
       </c>
       <c r="E66" s="3">
-        <v>294400</v>
+        <v>410900</v>
       </c>
       <c r="F66" s="3">
-        <v>326000</v>
+        <v>301300</v>
       </c>
       <c r="G66" s="3">
-        <v>362100</v>
+        <v>333700</v>
       </c>
       <c r="H66" s="3">
-        <v>299200</v>
+        <v>370600</v>
       </c>
       <c r="I66" s="3">
-        <v>283600</v>
+        <v>306200</v>
       </c>
       <c r="J66" s="3">
+        <v>290300</v>
+      </c>
+      <c r="K66" s="3">
         <v>271200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>424800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>412500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>132800</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1641900</v>
+        <v>1962500</v>
       </c>
       <c r="E72" s="3">
-        <v>1422800</v>
+        <v>1680400</v>
       </c>
       <c r="F72" s="3">
-        <v>1343800</v>
+        <v>1442800</v>
       </c>
       <c r="G72" s="3">
-        <v>1236900</v>
+        <v>1375200</v>
       </c>
       <c r="H72" s="3">
-        <v>1094900</v>
+        <v>1265900</v>
       </c>
       <c r="I72" s="3">
-        <v>1075600</v>
+        <v>1120500</v>
       </c>
       <c r="J72" s="3">
+        <v>1100700</v>
+      </c>
+      <c r="K72" s="3">
         <v>960400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>912000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>877200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>372200</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3283300</v>
+        <v>3658700</v>
       </c>
       <c r="E76" s="3">
-        <v>3046800</v>
+        <v>3360200</v>
       </c>
       <c r="F76" s="3">
-        <v>2976700</v>
+        <v>3118200</v>
       </c>
       <c r="G76" s="3">
-        <v>2854500</v>
+        <v>3046400</v>
       </c>
       <c r="H76" s="3">
-        <v>2716000</v>
+        <v>2921400</v>
       </c>
       <c r="I76" s="3">
-        <v>2694900</v>
+        <v>2779600</v>
       </c>
       <c r="J76" s="3">
+        <v>2758000</v>
+      </c>
+      <c r="K76" s="3">
         <v>2564300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2577700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2621500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2112000</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>253600</v>
+        <v>354400</v>
       </c>
       <c r="E81" s="3">
-        <v>62400</v>
+        <v>259500</v>
       </c>
       <c r="F81" s="3">
-        <v>96000</v>
+        <v>63800</v>
       </c>
       <c r="G81" s="3">
-        <v>119400</v>
+        <v>98300</v>
       </c>
       <c r="H81" s="3">
-        <v>41000</v>
+        <v>122200</v>
       </c>
       <c r="I81" s="3">
-        <v>147000</v>
+        <v>42000</v>
       </c>
       <c r="J81" s="3">
+        <v>150400</v>
+      </c>
+      <c r="K81" s="3">
         <v>77900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>73900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>495500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>128600</v>
+        <v>270100</v>
       </c>
       <c r="E89" s="3">
-        <v>78700</v>
+        <v>131600</v>
       </c>
       <c r="F89" s="3">
-        <v>32300</v>
+        <v>80600</v>
       </c>
       <c r="G89" s="3">
-        <v>59900</v>
+        <v>33100</v>
       </c>
       <c r="H89" s="3">
-        <v>47600</v>
+        <v>61400</v>
       </c>
       <c r="I89" s="3">
-        <v>158900</v>
+        <v>48700</v>
       </c>
       <c r="J89" s="3">
+        <v>162600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-107000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>708400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>321500</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9100</v>
+        <v>-11300</v>
       </c>
       <c r="E91" s="3">
-        <v>-7600</v>
+        <v>-9300</v>
       </c>
       <c r="F91" s="3">
-        <v>-9100</v>
+        <v>-7800</v>
       </c>
       <c r="G91" s="3">
-        <v>-10300</v>
+        <v>-9300</v>
       </c>
       <c r="H91" s="3">
         <v>-10600</v>
       </c>
       <c r="I91" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="J91" s="3">
         <v>-3800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-77200</v>
+        <v>-189700</v>
       </c>
       <c r="E94" s="3">
-        <v>-89500</v>
+        <v>-79100</v>
       </c>
       <c r="F94" s="3">
-        <v>-41000</v>
+        <v>-91500</v>
       </c>
       <c r="G94" s="3">
-        <v>-217400</v>
+        <v>-42000</v>
       </c>
       <c r="H94" s="3">
-        <v>207200</v>
+        <v>-222500</v>
       </c>
       <c r="I94" s="3">
-        <v>-77600</v>
+        <v>212100</v>
       </c>
       <c r="J94" s="3">
+        <v>-79500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-95800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-357800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>134800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +3830,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-28700</v>
+        <v>-88100</v>
       </c>
       <c r="E100" s="3">
-        <v>-8600</v>
+        <v>-29400</v>
       </c>
       <c r="F100" s="3">
-        <v>2100</v>
+        <v>-8800</v>
       </c>
       <c r="G100" s="3">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="H100" s="3">
-        <v>-32200</v>
+        <v>3300</v>
       </c>
       <c r="I100" s="3">
-        <v>-29500</v>
+        <v>-32900</v>
       </c>
       <c r="J100" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="K100" s="3">
         <v>4400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>77200</v>
+        <v>84700</v>
       </c>
       <c r="E101" s="3">
-        <v>34600</v>
+        <v>79100</v>
       </c>
       <c r="F101" s="3">
-        <v>37100</v>
+        <v>35400</v>
       </c>
       <c r="G101" s="3">
-        <v>53900</v>
+        <v>38000</v>
       </c>
       <c r="H101" s="3">
-        <v>-10100</v>
+        <v>55200</v>
       </c>
       <c r="I101" s="3">
-        <v>33000</v>
+        <v>-10300</v>
       </c>
       <c r="J101" s="3">
+        <v>33800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-20500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-34200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-14700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>99900</v>
+        <v>77000</v>
       </c>
       <c r="E102" s="3">
-        <v>15300</v>
+        <v>102300</v>
       </c>
       <c r="F102" s="3">
-        <v>30600</v>
+        <v>15600</v>
       </c>
       <c r="G102" s="3">
-        <v>-100300</v>
+        <v>31300</v>
       </c>
       <c r="H102" s="3">
-        <v>212600</v>
+        <v>-102700</v>
       </c>
       <c r="I102" s="3">
-        <v>84800</v>
+        <v>217500</v>
       </c>
       <c r="J102" s="3">
+        <v>86700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-218900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>319100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>115000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>332800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GMAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GMAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>GMAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,111 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>560900</v>
+        <v>743300</v>
       </c>
       <c r="E8" s="3">
-        <v>434000</v>
+        <v>581200</v>
       </c>
       <c r="F8" s="3">
-        <v>290800</v>
+        <v>449600</v>
       </c>
       <c r="G8" s="3">
-        <v>359500</v>
+        <v>301300</v>
       </c>
       <c r="H8" s="3">
-        <v>317000</v>
+        <v>372400</v>
       </c>
       <c r="I8" s="3">
-        <v>270700</v>
+        <v>328500</v>
       </c>
       <c r="J8" s="3">
+        <v>280400</v>
+      </c>
+      <c r="K8" s="3">
         <v>217000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>274100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>240500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>799600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>130800</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -800,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>204000</v>
+        <v>233400</v>
       </c>
       <c r="E12" s="3">
-        <v>176000</v>
+        <v>211300</v>
       </c>
       <c r="F12" s="3">
-        <v>158200</v>
+        <v>182300</v>
       </c>
       <c r="G12" s="3">
-        <v>178200</v>
+        <v>164000</v>
       </c>
       <c r="H12" s="3">
-        <v>152900</v>
+        <v>184600</v>
       </c>
       <c r="I12" s="3">
-        <v>126400</v>
+        <v>158400</v>
       </c>
       <c r="J12" s="3">
+        <v>131000</v>
+      </c>
+      <c r="K12" s="3">
         <v>116400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>124200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>100600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>113700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>295900</v>
+        <v>364300</v>
       </c>
       <c r="E17" s="3">
-        <v>262800</v>
+        <v>306600</v>
       </c>
       <c r="F17" s="3">
-        <v>220300</v>
+        <v>272300</v>
       </c>
       <c r="G17" s="3">
-        <v>248400</v>
+        <v>228200</v>
       </c>
       <c r="H17" s="3">
-        <v>194900</v>
+        <v>257400</v>
       </c>
       <c r="I17" s="3">
-        <v>162600</v>
+        <v>201900</v>
       </c>
       <c r="J17" s="3">
+        <v>168500</v>
+      </c>
+      <c r="K17" s="3">
         <v>144000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>155200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>120800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>139900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>120400</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>265000</v>
+        <v>379000</v>
       </c>
       <c r="E18" s="3">
-        <v>171200</v>
+        <v>274600</v>
       </c>
       <c r="F18" s="3">
-        <v>70500</v>
+        <v>177300</v>
       </c>
       <c r="G18" s="3">
-        <v>111000</v>
+        <v>73100</v>
       </c>
       <c r="H18" s="3">
-        <v>122200</v>
+        <v>115000</v>
       </c>
       <c r="I18" s="3">
-        <v>108000</v>
+        <v>126600</v>
       </c>
       <c r="J18" s="3">
+        <v>111900</v>
+      </c>
+      <c r="K18" s="3">
         <v>73000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>119000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>119700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>659700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,46 +1143,50 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>184900</v>
+        <v>-284100</v>
       </c>
       <c r="E20" s="3">
-        <v>171300</v>
+        <v>191500</v>
       </c>
       <c r="F20" s="3">
-        <v>14000</v>
+        <v>177500</v>
       </c>
       <c r="G20" s="3">
-        <v>22000</v>
+        <v>14500</v>
       </c>
       <c r="H20" s="3">
-        <v>39100</v>
+        <v>22800</v>
       </c>
       <c r="I20" s="3">
-        <v>-49700</v>
+        <v>40500</v>
       </c>
       <c r="J20" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="K20" s="3">
         <v>122800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-44700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-25700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-24600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1187,28 +1223,31 @@
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E22" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F22" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="G22" s="3">
+        <v>600</v>
+      </c>
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
-        <v>500</v>
-      </c>
       <c r="I22" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="J22" s="3">
         <v>400</v>
@@ -1220,89 +1259,98 @@
         <v>400</v>
       </c>
       <c r="M22" s="3">
+        <v>400</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>449100</v>
+        <v>94100</v>
       </c>
       <c r="E23" s="3">
-        <v>341600</v>
+        <v>465300</v>
       </c>
       <c r="F23" s="3">
-        <v>84000</v>
+        <v>353900</v>
       </c>
       <c r="G23" s="3">
-        <v>132600</v>
+        <v>87000</v>
       </c>
       <c r="H23" s="3">
-        <v>160700</v>
+        <v>137400</v>
       </c>
       <c r="I23" s="3">
-        <v>57900</v>
+        <v>166500</v>
       </c>
       <c r="J23" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K23" s="3">
         <v>195400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>73900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>93600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>634900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>94700</v>
+        <v>11100</v>
       </c>
       <c r="E24" s="3">
-        <v>82100</v>
+        <v>98100</v>
       </c>
       <c r="F24" s="3">
-        <v>20200</v>
+        <v>85000</v>
       </c>
       <c r="G24" s="3">
-        <v>34300</v>
+        <v>20900</v>
       </c>
       <c r="H24" s="3">
-        <v>38600</v>
+        <v>35600</v>
       </c>
       <c r="I24" s="3">
-        <v>15900</v>
+        <v>40000</v>
       </c>
       <c r="J24" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K24" s="3">
         <v>45000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>19700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>139400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>354400</v>
+        <v>83000</v>
       </c>
       <c r="E26" s="3">
-        <v>259500</v>
+        <v>367200</v>
       </c>
       <c r="F26" s="3">
-        <v>63800</v>
+        <v>268900</v>
       </c>
       <c r="G26" s="3">
-        <v>98300</v>
+        <v>66100</v>
       </c>
       <c r="H26" s="3">
-        <v>122200</v>
+        <v>101800</v>
       </c>
       <c r="I26" s="3">
-        <v>42000</v>
+        <v>126600</v>
       </c>
       <c r="J26" s="3">
+        <v>43500</v>
+      </c>
+      <c r="K26" s="3">
         <v>150400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>77900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>73900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>495500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>354400</v>
+        <v>83000</v>
       </c>
       <c r="E27" s="3">
-        <v>259500</v>
+        <v>367200</v>
       </c>
       <c r="F27" s="3">
-        <v>63800</v>
+        <v>268900</v>
       </c>
       <c r="G27" s="3">
-        <v>98300</v>
+        <v>66100</v>
       </c>
       <c r="H27" s="3">
-        <v>122200</v>
+        <v>101800</v>
       </c>
       <c r="I27" s="3">
-        <v>42000</v>
+        <v>126600</v>
       </c>
       <c r="J27" s="3">
+        <v>43500</v>
+      </c>
+      <c r="K27" s="3">
         <v>150400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>77900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>73900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>495500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-184900</v>
+        <v>284100</v>
       </c>
       <c r="E32" s="3">
-        <v>-171300</v>
+        <v>-191500</v>
       </c>
       <c r="F32" s="3">
-        <v>-14000</v>
+        <v>-177500</v>
       </c>
       <c r="G32" s="3">
-        <v>-22000</v>
+        <v>-14500</v>
       </c>
       <c r="H32" s="3">
-        <v>-39100</v>
+        <v>-22800</v>
       </c>
       <c r="I32" s="3">
-        <v>49700</v>
+        <v>-40500</v>
       </c>
       <c r="J32" s="3">
+        <v>51500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-122800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>44700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>25700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>24600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-41800</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>354400</v>
+        <v>83000</v>
       </c>
       <c r="E33" s="3">
-        <v>259500</v>
+        <v>367200</v>
       </c>
       <c r="F33" s="3">
-        <v>63800</v>
+        <v>268900</v>
       </c>
       <c r="G33" s="3">
-        <v>98300</v>
+        <v>66100</v>
       </c>
       <c r="H33" s="3">
-        <v>122200</v>
+        <v>101800</v>
       </c>
       <c r="I33" s="3">
-        <v>42000</v>
+        <v>126600</v>
       </c>
       <c r="J33" s="3">
+        <v>43500</v>
+      </c>
+      <c r="K33" s="3">
         <v>150400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>77900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>73900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>495500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>354400</v>
+        <v>83000</v>
       </c>
       <c r="E35" s="3">
-        <v>259500</v>
+        <v>367200</v>
       </c>
       <c r="F35" s="3">
-        <v>63800</v>
+        <v>268900</v>
       </c>
       <c r="G35" s="3">
-        <v>98300</v>
+        <v>66100</v>
       </c>
       <c r="H35" s="3">
-        <v>122200</v>
+        <v>101800</v>
       </c>
       <c r="I35" s="3">
-        <v>42000</v>
+        <v>126600</v>
       </c>
       <c r="J35" s="3">
+        <v>43500</v>
+      </c>
+      <c r="K35" s="3">
         <v>150400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>77900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>73900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>495500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,122 +1879,132 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1424200</v>
+        <v>1406800</v>
       </c>
       <c r="E41" s="3">
-        <v>1347200</v>
+        <v>1475600</v>
       </c>
       <c r="F41" s="3">
-        <v>1245000</v>
+        <v>1395800</v>
       </c>
       <c r="G41" s="3">
-        <v>1229300</v>
+        <v>1289900</v>
       </c>
       <c r="H41" s="3">
-        <v>1198100</v>
+        <v>1273700</v>
       </c>
       <c r="I41" s="3">
-        <v>1300700</v>
+        <v>1241300</v>
       </c>
       <c r="J41" s="3">
+        <v>1347600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1083200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>973600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1240500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>968900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>813100</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1840700</v>
+        <v>1767700</v>
       </c>
       <c r="E42" s="3">
-        <v>1619400</v>
+        <v>1907000</v>
       </c>
       <c r="F42" s="3">
-        <v>1498400</v>
+        <v>1677800</v>
       </c>
       <c r="G42" s="3">
-        <v>1424800</v>
+        <v>1552400</v>
       </c>
       <c r="H42" s="3">
-        <v>1374400</v>
+        <v>1476200</v>
       </c>
       <c r="I42" s="3">
-        <v>1152600</v>
+        <v>1424000</v>
       </c>
       <c r="J42" s="3">
+        <v>1194200</v>
+      </c>
+      <c r="K42" s="3">
         <v>1398700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1182700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1196600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>906100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1088000</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>679500</v>
+        <v>860700</v>
       </c>
       <c r="E43" s="3">
-        <v>532000</v>
+        <v>704000</v>
       </c>
       <c r="F43" s="3">
-        <v>437400</v>
+        <v>551200</v>
       </c>
       <c r="G43" s="3">
-        <v>466400</v>
+        <v>453200</v>
       </c>
       <c r="H43" s="3">
-        <v>440700</v>
+        <v>483200</v>
       </c>
       <c r="I43" s="3">
-        <v>333400</v>
+        <v>456600</v>
       </c>
       <c r="J43" s="3">
+        <v>345400</v>
+      </c>
+      <c r="K43" s="3">
         <v>254500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>363700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>283900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>932800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2041,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1984,160 +2082,175 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3944400</v>
+        <v>4035200</v>
       </c>
       <c r="E46" s="3">
-        <v>3498600</v>
+        <v>4086700</v>
       </c>
       <c r="F46" s="3">
-        <v>3180800</v>
+        <v>3624800</v>
       </c>
       <c r="G46" s="3">
-        <v>3120500</v>
+        <v>3295500</v>
       </c>
       <c r="H46" s="3">
-        <v>3013200</v>
+        <v>3233100</v>
       </c>
       <c r="I46" s="3">
-        <v>2786700</v>
+        <v>3121900</v>
       </c>
       <c r="J46" s="3">
+        <v>2887200</v>
+      </c>
+      <c r="K46" s="3">
         <v>2736400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2520100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2721000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2807800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2066900</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>26600</v>
+        <v>25700</v>
       </c>
       <c r="E47" s="3">
-        <v>36600</v>
+        <v>27600</v>
       </c>
       <c r="F47" s="3">
-        <v>36500</v>
+        <v>38000</v>
       </c>
       <c r="G47" s="3">
-        <v>54600</v>
+        <v>37800</v>
       </c>
       <c r="H47" s="3">
-        <v>85100</v>
+        <v>56600</v>
       </c>
       <c r="I47" s="3">
-        <v>107900</v>
+        <v>88200</v>
       </c>
       <c r="J47" s="3">
+        <v>111800</v>
+      </c>
+      <c r="K47" s="3">
         <v>128600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>147700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>93100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>24100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>176900</v>
+        <v>188000</v>
       </c>
       <c r="E48" s="3">
-        <v>169900</v>
+        <v>183300</v>
       </c>
       <c r="F48" s="3">
-        <v>133800</v>
+        <v>176000</v>
       </c>
       <c r="G48" s="3">
-        <v>133800</v>
+        <v>138600</v>
       </c>
       <c r="H48" s="3">
-        <v>131300</v>
+        <v>138600</v>
       </c>
       <c r="I48" s="3">
-        <v>126100</v>
+        <v>136100</v>
       </c>
       <c r="J48" s="3">
+        <v>130700</v>
+      </c>
+      <c r="K48" s="3">
         <v>115600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>98700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>101800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>106500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>72000</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>27500</v>
+        <v>20800</v>
       </c>
       <c r="E49" s="3">
-        <v>29600</v>
+        <v>28400</v>
       </c>
       <c r="F49" s="3">
-        <v>32100</v>
+        <v>30700</v>
       </c>
       <c r="G49" s="3">
-        <v>34900</v>
+        <v>33300</v>
       </c>
       <c r="H49" s="3">
-        <v>37700</v>
+        <v>36100</v>
       </c>
       <c r="I49" s="3">
-        <v>40800</v>
+        <v>39100</v>
       </c>
       <c r="J49" s="3">
+        <v>42200</v>
+      </c>
+      <c r="K49" s="3">
         <v>43500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>45300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>53700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>60600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>36200</v>
+        <v>35800</v>
       </c>
       <c r="E52" s="3">
-        <v>36200</v>
+        <v>37500</v>
       </c>
       <c r="F52" s="3">
-        <v>36200</v>
+        <v>37500</v>
       </c>
       <c r="G52" s="3">
-        <v>36200</v>
+        <v>37500</v>
       </c>
       <c r="H52" s="3">
-        <v>24600</v>
+        <v>37500</v>
       </c>
       <c r="I52" s="3">
+        <v>25500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K52" s="3">
         <v>24300</v>
       </c>
-      <c r="J52" s="3">
-        <v>24300</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>23700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>32900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>35100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4211700</v>
+        <v>4305500</v>
       </c>
       <c r="E54" s="3">
-        <v>3771100</v>
+        <v>4363500</v>
       </c>
       <c r="F54" s="3">
-        <v>3419400</v>
+        <v>3907100</v>
       </c>
       <c r="G54" s="3">
-        <v>3380100</v>
+        <v>3542800</v>
       </c>
       <c r="H54" s="3">
-        <v>3291900</v>
+        <v>3502000</v>
       </c>
       <c r="I54" s="3">
-        <v>3085800</v>
+        <v>3410700</v>
       </c>
       <c r="J54" s="3">
+        <v>3197100</v>
+      </c>
+      <c r="K54" s="3">
         <v>3048300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2835500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3002500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3034000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2244800</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2396,198 +2526,216 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10800</v>
+        <v>10500</v>
       </c>
       <c r="E58" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="F58" s="3">
-        <v>8200</v>
+        <v>11400</v>
       </c>
       <c r="G58" s="3">
         <v>8500</v>
       </c>
       <c r="H58" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="I58" s="3">
-        <v>8100</v>
+        <v>9000</v>
       </c>
       <c r="J58" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K58" s="3">
         <v>7100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>399300</v>
+        <v>248700</v>
       </c>
       <c r="E59" s="3">
-        <v>255800</v>
+        <v>413700</v>
       </c>
       <c r="F59" s="3">
-        <v>175500</v>
+        <v>265100</v>
       </c>
       <c r="G59" s="3">
-        <v>206700</v>
+        <v>181900</v>
       </c>
       <c r="H59" s="3">
-        <v>242500</v>
+        <v>214200</v>
       </c>
       <c r="I59" s="3">
-        <v>177300</v>
+        <v>251300</v>
       </c>
       <c r="J59" s="3">
+        <v>183700</v>
+      </c>
+      <c r="K59" s="3">
         <v>170300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>162400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>309200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>288400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>104700</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>410100</v>
+        <v>259200</v>
       </c>
       <c r="E60" s="3">
-        <v>266800</v>
+        <v>424900</v>
       </c>
       <c r="F60" s="3">
-        <v>183800</v>
+        <v>276400</v>
       </c>
       <c r="G60" s="3">
-        <v>215200</v>
+        <v>190400</v>
       </c>
       <c r="H60" s="3">
-        <v>251200</v>
+        <v>223000</v>
       </c>
       <c r="I60" s="3">
-        <v>185400</v>
+        <v>260200</v>
       </c>
       <c r="J60" s="3">
+        <v>192100</v>
+      </c>
+      <c r="K60" s="3">
         <v>177500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>168000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>315000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>294700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>108600</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>75500</v>
+        <v>74400</v>
       </c>
       <c r="E61" s="3">
-        <v>76000</v>
+        <v>78200</v>
       </c>
       <c r="F61" s="3">
-        <v>48900</v>
+        <v>78800</v>
       </c>
       <c r="G61" s="3">
-        <v>49800</v>
+        <v>50600</v>
       </c>
       <c r="H61" s="3">
-        <v>51300</v>
+        <v>51600</v>
       </c>
       <c r="I61" s="3">
-        <v>52700</v>
+        <v>53200</v>
       </c>
       <c r="J61" s="3">
+        <v>54600</v>
+      </c>
+      <c r="K61" s="3">
         <v>44700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>41200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>45900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>67400</v>
+        <v>69800</v>
       </c>
       <c r="E62" s="3">
+        <v>69800</v>
+      </c>
+      <c r="F62" s="3">
+        <v>70500</v>
+      </c>
+      <c r="G62" s="3">
+        <v>71100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>71100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>70500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>70500</v>
+      </c>
+      <c r="K62" s="3">
         <v>68100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="L62" s="3">
+        <v>66000</v>
+      </c>
+      <c r="M62" s="3">
         <v>68600</v>
       </c>
-      <c r="G62" s="3">
-        <v>68600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>68100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>68100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>68100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>66000</v>
-      </c>
-      <c r="L62" s="3">
-        <v>68600</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>71900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>553000</v>
+        <v>403400</v>
       </c>
       <c r="E66" s="3">
-        <v>410900</v>
+        <v>572900</v>
       </c>
       <c r="F66" s="3">
-        <v>301300</v>
+        <v>425700</v>
       </c>
       <c r="G66" s="3">
-        <v>333700</v>
+        <v>312100</v>
       </c>
       <c r="H66" s="3">
-        <v>370600</v>
+        <v>345700</v>
       </c>
       <c r="I66" s="3">
-        <v>306200</v>
+        <v>383900</v>
       </c>
       <c r="J66" s="3">
+        <v>317200</v>
+      </c>
+      <c r="K66" s="3">
         <v>290300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>271200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>424800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>412500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>132800</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1962500</v>
+        <v>2128400</v>
       </c>
       <c r="E72" s="3">
-        <v>1680400</v>
+        <v>2033300</v>
       </c>
       <c r="F72" s="3">
-        <v>1442800</v>
+        <v>1741000</v>
       </c>
       <c r="G72" s="3">
-        <v>1375200</v>
+        <v>1494800</v>
       </c>
       <c r="H72" s="3">
-        <v>1265900</v>
+        <v>1424800</v>
       </c>
       <c r="I72" s="3">
-        <v>1120500</v>
+        <v>1311500</v>
       </c>
       <c r="J72" s="3">
+        <v>1160900</v>
+      </c>
+      <c r="K72" s="3">
         <v>1100700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>960400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>912000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>877200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>372200</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3658700</v>
+        <v>3902100</v>
       </c>
       <c r="E76" s="3">
-        <v>3360200</v>
+        <v>3790600</v>
       </c>
       <c r="F76" s="3">
-        <v>3118200</v>
+        <v>3481300</v>
       </c>
       <c r="G76" s="3">
-        <v>3046400</v>
+        <v>3230600</v>
       </c>
       <c r="H76" s="3">
-        <v>2921400</v>
+        <v>3156300</v>
       </c>
       <c r="I76" s="3">
-        <v>2779600</v>
+        <v>3026700</v>
       </c>
       <c r="J76" s="3">
+        <v>2879800</v>
+      </c>
+      <c r="K76" s="3">
         <v>2758000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2564300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2577700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2621500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2112000</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>354400</v>
+        <v>83000</v>
       </c>
       <c r="E81" s="3">
-        <v>259500</v>
+        <v>367200</v>
       </c>
       <c r="F81" s="3">
-        <v>63800</v>
+        <v>268900</v>
       </c>
       <c r="G81" s="3">
-        <v>98300</v>
+        <v>66100</v>
       </c>
       <c r="H81" s="3">
-        <v>122200</v>
+        <v>101800</v>
       </c>
       <c r="I81" s="3">
-        <v>42000</v>
+        <v>126600</v>
       </c>
       <c r="J81" s="3">
+        <v>43500</v>
+      </c>
+      <c r="K81" s="3">
         <v>150400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>77900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>73900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>495500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>270100</v>
+        <v>56600</v>
       </c>
       <c r="E89" s="3">
-        <v>131600</v>
+        <v>279800</v>
       </c>
       <c r="F89" s="3">
-        <v>80600</v>
+        <v>136400</v>
       </c>
       <c r="G89" s="3">
-        <v>33100</v>
+        <v>83500</v>
       </c>
       <c r="H89" s="3">
-        <v>61400</v>
+        <v>34300</v>
       </c>
       <c r="I89" s="3">
-        <v>48700</v>
+        <v>63600</v>
       </c>
       <c r="J89" s="3">
+        <v>50500</v>
+      </c>
+      <c r="K89" s="3">
         <v>162600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-107000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>708400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>321500</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11300</v>
+        <v>-15600</v>
       </c>
       <c r="E91" s="3">
-        <v>-9300</v>
+        <v>-11700</v>
       </c>
       <c r="F91" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="L91" s="3">
         <v>-7800</v>
       </c>
-      <c r="G91" s="3">
-        <v>-9300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-189700</v>
+        <v>-19300</v>
       </c>
       <c r="E94" s="3">
-        <v>-79100</v>
+        <v>-196500</v>
       </c>
       <c r="F94" s="3">
-        <v>-91500</v>
+        <v>-81900</v>
       </c>
       <c r="G94" s="3">
-        <v>-42000</v>
+        <v>-94800</v>
       </c>
       <c r="H94" s="3">
-        <v>-222500</v>
+        <v>-43500</v>
       </c>
       <c r="I94" s="3">
-        <v>212100</v>
+        <v>-230500</v>
       </c>
       <c r="J94" s="3">
+        <v>219700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-79500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-95800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-357800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>134800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,118 +4075,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-88100</v>
+        <v>18600</v>
       </c>
       <c r="E100" s="3">
-        <v>-29400</v>
+        <v>-91300</v>
       </c>
       <c r="F100" s="3">
-        <v>-8800</v>
+        <v>-30400</v>
       </c>
       <c r="G100" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="L100" s="3">
+        <v>4400</v>
+      </c>
+      <c r="M100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N100" s="3">
+        <v>600</v>
+      </c>
+      <c r="O100" s="3">
         <v>2200</v>
       </c>
-      <c r="H100" s="3">
-        <v>3300</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-32900</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-30200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>4400</v>
-      </c>
-      <c r="L100" s="3">
-        <v>2700</v>
-      </c>
-      <c r="M100" s="3">
-        <v>600</v>
-      </c>
-      <c r="N100" s="3">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>84700</v>
+        <v>-124700</v>
       </c>
       <c r="E101" s="3">
-        <v>79100</v>
+        <v>87700</v>
       </c>
       <c r="F101" s="3">
-        <v>35400</v>
+        <v>81900</v>
       </c>
       <c r="G101" s="3">
-        <v>38000</v>
+        <v>36700</v>
       </c>
       <c r="H101" s="3">
-        <v>55200</v>
+        <v>39400</v>
       </c>
       <c r="I101" s="3">
-        <v>-10300</v>
+        <v>57200</v>
       </c>
       <c r="J101" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="K101" s="3">
         <v>33800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-20500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-34200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-14700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>77000</v>
+        <v>-68800</v>
       </c>
       <c r="E102" s="3">
-        <v>102300</v>
+        <v>79800</v>
       </c>
       <c r="F102" s="3">
-        <v>15600</v>
+        <v>105900</v>
       </c>
       <c r="G102" s="3">
-        <v>31300</v>
+        <v>16200</v>
       </c>
       <c r="H102" s="3">
-        <v>-102700</v>
+        <v>32400</v>
       </c>
       <c r="I102" s="3">
-        <v>217500</v>
+        <v>-106400</v>
       </c>
       <c r="J102" s="3">
+        <v>225400</v>
+      </c>
+      <c r="K102" s="3">
         <v>86700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-218900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>319100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>115000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>332800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GMAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GMAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>GMAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,118 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>743300</v>
+        <v>412800</v>
       </c>
       <c r="E8" s="3">
-        <v>581200</v>
+        <v>756000</v>
       </c>
       <c r="F8" s="3">
-        <v>449600</v>
+        <v>591100</v>
       </c>
       <c r="G8" s="3">
-        <v>301300</v>
+        <v>457300</v>
       </c>
       <c r="H8" s="3">
-        <v>372400</v>
+        <v>306500</v>
       </c>
       <c r="I8" s="3">
-        <v>328500</v>
+        <v>378800</v>
       </c>
       <c r="J8" s="3">
+        <v>334100</v>
+      </c>
+      <c r="K8" s="3">
         <v>280400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>217000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>274100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>240500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>799600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>130800</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -809,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>233400</v>
+        <v>251800</v>
       </c>
       <c r="E12" s="3">
-        <v>211300</v>
+        <v>237300</v>
       </c>
       <c r="F12" s="3">
-        <v>182300</v>
+        <v>214900</v>
       </c>
       <c r="G12" s="3">
-        <v>164000</v>
+        <v>185400</v>
       </c>
       <c r="H12" s="3">
-        <v>184600</v>
+        <v>166800</v>
       </c>
       <c r="I12" s="3">
-        <v>158400</v>
+        <v>187700</v>
       </c>
       <c r="J12" s="3">
+        <v>161100</v>
+      </c>
+      <c r="K12" s="3">
         <v>131000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>116400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>124200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>100600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>113700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>364300</v>
+        <v>349600</v>
       </c>
       <c r="E17" s="3">
-        <v>306600</v>
+        <v>370500</v>
       </c>
       <c r="F17" s="3">
-        <v>272300</v>
+        <v>311800</v>
       </c>
       <c r="G17" s="3">
-        <v>228200</v>
+        <v>277000</v>
       </c>
       <c r="H17" s="3">
-        <v>257400</v>
+        <v>232100</v>
       </c>
       <c r="I17" s="3">
-        <v>201900</v>
+        <v>261800</v>
       </c>
       <c r="J17" s="3">
+        <v>205400</v>
+      </c>
+      <c r="K17" s="3">
         <v>168500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>144000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>155200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>120800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>139900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>120400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>379000</v>
+        <v>63200</v>
       </c>
       <c r="E18" s="3">
-        <v>274600</v>
+        <v>385400</v>
       </c>
       <c r="F18" s="3">
-        <v>177300</v>
+        <v>279300</v>
       </c>
       <c r="G18" s="3">
-        <v>73100</v>
+        <v>180400</v>
       </c>
       <c r="H18" s="3">
-        <v>115000</v>
+        <v>74300</v>
       </c>
       <c r="I18" s="3">
-        <v>126600</v>
+        <v>117000</v>
       </c>
       <c r="J18" s="3">
+        <v>128700</v>
+      </c>
+      <c r="K18" s="3">
         <v>111900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>73000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>119000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>119700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>659700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,54 +1177,58 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-284100</v>
+        <v>-21000</v>
       </c>
       <c r="E20" s="3">
-        <v>191500</v>
+        <v>-289000</v>
       </c>
       <c r="F20" s="3">
-        <v>177500</v>
+        <v>194800</v>
       </c>
       <c r="G20" s="3">
-        <v>14500</v>
+        <v>180500</v>
       </c>
       <c r="H20" s="3">
-        <v>22800</v>
+        <v>14800</v>
       </c>
       <c r="I20" s="3">
-        <v>40500</v>
+        <v>23100</v>
       </c>
       <c r="J20" s="3">
+        <v>41200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-51500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>122800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-44700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-25700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-24600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>45300</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
@@ -1226,31 +1263,34 @@
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
-      </c>
-      <c r="E22" s="3">
-        <v>900</v>
       </c>
       <c r="F22" s="3">
         <v>900</v>
       </c>
       <c r="G22" s="3">
+        <v>900</v>
+      </c>
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>400</v>
       </c>
       <c r="K22" s="3">
         <v>400</v>
@@ -1262,95 +1302,104 @@
         <v>400</v>
       </c>
       <c r="N22" s="3">
+        <v>400</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>94100</v>
+        <v>41400</v>
       </c>
       <c r="E23" s="3">
-        <v>465300</v>
+        <v>95700</v>
       </c>
       <c r="F23" s="3">
-        <v>353900</v>
+        <v>473200</v>
       </c>
       <c r="G23" s="3">
-        <v>87000</v>
+        <v>360000</v>
       </c>
       <c r="H23" s="3">
-        <v>137400</v>
+        <v>88500</v>
       </c>
       <c r="I23" s="3">
-        <v>166500</v>
+        <v>139700</v>
       </c>
       <c r="J23" s="3">
+        <v>169400</v>
+      </c>
+      <c r="K23" s="3">
         <v>60000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>195400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>73900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>93600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>634900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11100</v>
+        <v>8700</v>
       </c>
       <c r="E24" s="3">
-        <v>98100</v>
+        <v>11300</v>
       </c>
       <c r="F24" s="3">
-        <v>85000</v>
+        <v>99800</v>
       </c>
       <c r="G24" s="3">
-        <v>20900</v>
+        <v>86500</v>
       </c>
       <c r="H24" s="3">
-        <v>35600</v>
+        <v>21300</v>
       </c>
       <c r="I24" s="3">
-        <v>40000</v>
+        <v>36200</v>
       </c>
       <c r="J24" s="3">
+        <v>40600</v>
+      </c>
+      <c r="K24" s="3">
         <v>16500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>45000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>19700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>139400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>83000</v>
+        <v>32700</v>
       </c>
       <c r="E26" s="3">
-        <v>367200</v>
+        <v>84500</v>
       </c>
       <c r="F26" s="3">
-        <v>268900</v>
+        <v>373400</v>
       </c>
       <c r="G26" s="3">
-        <v>66100</v>
+        <v>273500</v>
       </c>
       <c r="H26" s="3">
-        <v>101800</v>
+        <v>67300</v>
       </c>
       <c r="I26" s="3">
-        <v>126600</v>
+        <v>103600</v>
       </c>
       <c r="J26" s="3">
+        <v>128700</v>
+      </c>
+      <c r="K26" s="3">
         <v>43500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>150400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>77900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>73900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>495500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>83000</v>
+        <v>32700</v>
       </c>
       <c r="E27" s="3">
-        <v>367200</v>
+        <v>84500</v>
       </c>
       <c r="F27" s="3">
-        <v>268900</v>
+        <v>373400</v>
       </c>
       <c r="G27" s="3">
-        <v>66100</v>
+        <v>273500</v>
       </c>
       <c r="H27" s="3">
-        <v>101800</v>
+        <v>67300</v>
       </c>
       <c r="I27" s="3">
-        <v>126600</v>
+        <v>103600</v>
       </c>
       <c r="J27" s="3">
+        <v>128700</v>
+      </c>
+      <c r="K27" s="3">
         <v>43500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>150400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>77900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>73900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>495500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>284100</v>
+        <v>21000</v>
       </c>
       <c r="E32" s="3">
-        <v>-191500</v>
+        <v>289000</v>
       </c>
       <c r="F32" s="3">
-        <v>-177500</v>
+        <v>-194800</v>
       </c>
       <c r="G32" s="3">
-        <v>-14500</v>
+        <v>-180500</v>
       </c>
       <c r="H32" s="3">
-        <v>-22800</v>
+        <v>-14800</v>
       </c>
       <c r="I32" s="3">
-        <v>-40500</v>
+        <v>-23100</v>
       </c>
       <c r="J32" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="K32" s="3">
         <v>51500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-122800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>44700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>25700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>24600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-41800</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>83000</v>
+        <v>32700</v>
       </c>
       <c r="E33" s="3">
-        <v>367200</v>
+        <v>84500</v>
       </c>
       <c r="F33" s="3">
-        <v>268900</v>
+        <v>373400</v>
       </c>
       <c r="G33" s="3">
-        <v>66100</v>
+        <v>273500</v>
       </c>
       <c r="H33" s="3">
-        <v>101800</v>
+        <v>67300</v>
       </c>
       <c r="I33" s="3">
-        <v>126600</v>
+        <v>103600</v>
       </c>
       <c r="J33" s="3">
+        <v>128700</v>
+      </c>
+      <c r="K33" s="3">
         <v>43500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>150400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>77900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>73900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>495500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>83000</v>
+        <v>32700</v>
       </c>
       <c r="E35" s="3">
-        <v>367200</v>
+        <v>84500</v>
       </c>
       <c r="F35" s="3">
-        <v>268900</v>
+        <v>373400</v>
       </c>
       <c r="G35" s="3">
-        <v>66100</v>
+        <v>273500</v>
       </c>
       <c r="H35" s="3">
-        <v>101800</v>
+        <v>67300</v>
       </c>
       <c r="I35" s="3">
-        <v>126600</v>
+        <v>103600</v>
       </c>
       <c r="J35" s="3">
+        <v>128700</v>
+      </c>
+      <c r="K35" s="3">
         <v>43500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>150400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>77900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>73900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>495500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,131 +1966,141 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1406800</v>
+        <v>1777200</v>
       </c>
       <c r="E41" s="3">
-        <v>1475600</v>
+        <v>1430800</v>
       </c>
       <c r="F41" s="3">
-        <v>1395800</v>
+        <v>1500800</v>
       </c>
       <c r="G41" s="3">
-        <v>1289900</v>
+        <v>1419700</v>
       </c>
       <c r="H41" s="3">
-        <v>1273700</v>
+        <v>1311900</v>
       </c>
       <c r="I41" s="3">
-        <v>1241300</v>
+        <v>1295500</v>
       </c>
       <c r="J41" s="3">
+        <v>1262500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1347600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1083200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>973600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1240500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>968900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>813100</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1767700</v>
+        <v>1772600</v>
       </c>
       <c r="E42" s="3">
-        <v>1907000</v>
+        <v>1797900</v>
       </c>
       <c r="F42" s="3">
-        <v>1677800</v>
+        <v>1939600</v>
       </c>
       <c r="G42" s="3">
-        <v>1552400</v>
+        <v>1706500</v>
       </c>
       <c r="H42" s="3">
-        <v>1476200</v>
+        <v>1578900</v>
       </c>
       <c r="I42" s="3">
-        <v>1424000</v>
+        <v>1501400</v>
       </c>
       <c r="J42" s="3">
+        <v>1448300</v>
+      </c>
+      <c r="K42" s="3">
         <v>1194200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1398700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1182700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1196600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>906100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1088000</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>860700</v>
+        <v>533300</v>
       </c>
       <c r="E43" s="3">
-        <v>704000</v>
+        <v>875400</v>
       </c>
       <c r="F43" s="3">
-        <v>551200</v>
+        <v>716100</v>
       </c>
       <c r="G43" s="3">
-        <v>453200</v>
+        <v>560600</v>
       </c>
       <c r="H43" s="3">
-        <v>483200</v>
+        <v>460900</v>
       </c>
       <c r="I43" s="3">
-        <v>456600</v>
+        <v>491500</v>
       </c>
       <c r="J43" s="3">
+        <v>464400</v>
+      </c>
+      <c r="K43" s="3">
         <v>345400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>254500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>363700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>283900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>932800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,8 +2140,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2085,172 +2184,187 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4035200</v>
+        <v>4083000</v>
       </c>
       <c r="E46" s="3">
-        <v>4086700</v>
+        <v>4104200</v>
       </c>
       <c r="F46" s="3">
-        <v>3624800</v>
+        <v>4156500</v>
       </c>
       <c r="G46" s="3">
-        <v>3295500</v>
+        <v>3686800</v>
       </c>
       <c r="H46" s="3">
-        <v>3233100</v>
+        <v>3351800</v>
       </c>
       <c r="I46" s="3">
-        <v>3121900</v>
+        <v>3288300</v>
       </c>
       <c r="J46" s="3">
+        <v>3175200</v>
+      </c>
+      <c r="K46" s="3">
         <v>2887200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2736400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2520100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2721000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2807800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2066900</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>25700</v>
+        <v>26500</v>
       </c>
       <c r="E47" s="3">
-        <v>27600</v>
+        <v>26200</v>
       </c>
       <c r="F47" s="3">
-        <v>38000</v>
+        <v>28100</v>
       </c>
       <c r="G47" s="3">
-        <v>37800</v>
+        <v>38600</v>
       </c>
       <c r="H47" s="3">
-        <v>56600</v>
+        <v>38500</v>
       </c>
       <c r="I47" s="3">
-        <v>88200</v>
+        <v>57600</v>
       </c>
       <c r="J47" s="3">
+        <v>89700</v>
+      </c>
+      <c r="K47" s="3">
         <v>111800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>128600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>147700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>93100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>24100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>188000</v>
+        <v>230800</v>
       </c>
       <c r="E48" s="3">
-        <v>183300</v>
+        <v>191200</v>
       </c>
       <c r="F48" s="3">
-        <v>176000</v>
+        <v>186400</v>
       </c>
       <c r="G48" s="3">
-        <v>138600</v>
+        <v>179100</v>
       </c>
       <c r="H48" s="3">
-        <v>138600</v>
+        <v>141000</v>
       </c>
       <c r="I48" s="3">
-        <v>136100</v>
+        <v>141000</v>
       </c>
       <c r="J48" s="3">
+        <v>138400</v>
+      </c>
+      <c r="K48" s="3">
         <v>130700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>115600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>98700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>101800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>106500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>72000</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20800</v>
+        <v>19100</v>
       </c>
       <c r="E49" s="3">
-        <v>28400</v>
+        <v>21100</v>
       </c>
       <c r="F49" s="3">
-        <v>30700</v>
+        <v>28900</v>
       </c>
       <c r="G49" s="3">
-        <v>33300</v>
+        <v>31200</v>
       </c>
       <c r="H49" s="3">
-        <v>36100</v>
+        <v>33800</v>
       </c>
       <c r="I49" s="3">
-        <v>39100</v>
+        <v>36700</v>
       </c>
       <c r="J49" s="3">
+        <v>39800</v>
+      </c>
+      <c r="K49" s="3">
         <v>42200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>43500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>45300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>53700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>60600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>35800</v>
+        <v>36400</v>
       </c>
       <c r="E52" s="3">
-        <v>37500</v>
+        <v>36400</v>
       </c>
       <c r="F52" s="3">
-        <v>37500</v>
+        <v>38200</v>
       </c>
       <c r="G52" s="3">
-        <v>37500</v>
+        <v>38200</v>
       </c>
       <c r="H52" s="3">
-        <v>37500</v>
+        <v>38200</v>
       </c>
       <c r="I52" s="3">
-        <v>25500</v>
+        <v>38200</v>
       </c>
       <c r="J52" s="3">
+        <v>25900</v>
+      </c>
+      <c r="K52" s="3">
         <v>25200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>24300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>23700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>32900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>35100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4305500</v>
+        <v>4395900</v>
       </c>
       <c r="E54" s="3">
-        <v>4363500</v>
+        <v>4379100</v>
       </c>
       <c r="F54" s="3">
-        <v>3907100</v>
+        <v>4438100</v>
       </c>
       <c r="G54" s="3">
-        <v>3542800</v>
+        <v>3973900</v>
       </c>
       <c r="H54" s="3">
-        <v>3502000</v>
+        <v>3603300</v>
       </c>
       <c r="I54" s="3">
-        <v>3410700</v>
+        <v>3561800</v>
       </c>
       <c r="J54" s="3">
+        <v>3469000</v>
+      </c>
+      <c r="K54" s="3">
         <v>3197100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3048300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2835500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3002500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3034000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2244800</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2529,213 +2660,231 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10500</v>
+        <v>12900</v>
       </c>
       <c r="E58" s="3">
-        <v>11200</v>
+        <v>10700</v>
       </c>
       <c r="F58" s="3">
         <v>11400</v>
       </c>
       <c r="G58" s="3">
-        <v>8500</v>
+        <v>11600</v>
       </c>
       <c r="H58" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="I58" s="3">
         <v>9000</v>
       </c>
       <c r="J58" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K58" s="3">
         <v>8400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>248700</v>
+        <v>269900</v>
       </c>
       <c r="E59" s="3">
-        <v>413700</v>
+        <v>253000</v>
       </c>
       <c r="F59" s="3">
-        <v>265100</v>
+        <v>420700</v>
       </c>
       <c r="G59" s="3">
-        <v>181900</v>
+        <v>269600</v>
       </c>
       <c r="H59" s="3">
-        <v>214200</v>
+        <v>185000</v>
       </c>
       <c r="I59" s="3">
-        <v>251300</v>
+        <v>217800</v>
       </c>
       <c r="J59" s="3">
+        <v>255600</v>
+      </c>
+      <c r="K59" s="3">
         <v>183700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>170300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>162400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>309200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>288400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>104700</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>259200</v>
+        <v>282800</v>
       </c>
       <c r="E60" s="3">
-        <v>424900</v>
+        <v>263700</v>
       </c>
       <c r="F60" s="3">
-        <v>276400</v>
+        <v>432200</v>
       </c>
       <c r="G60" s="3">
-        <v>190400</v>
+        <v>281200</v>
       </c>
       <c r="H60" s="3">
-        <v>223000</v>
+        <v>193700</v>
       </c>
       <c r="I60" s="3">
-        <v>260200</v>
+        <v>226800</v>
       </c>
       <c r="J60" s="3">
+        <v>264700</v>
+      </c>
+      <c r="K60" s="3">
         <v>192100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>177500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>168000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>315000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>294700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>108600</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>74400</v>
+        <v>107000</v>
       </c>
       <c r="E61" s="3">
-        <v>78200</v>
+        <v>75600</v>
       </c>
       <c r="F61" s="3">
-        <v>78800</v>
+        <v>79500</v>
       </c>
       <c r="G61" s="3">
-        <v>50600</v>
+        <v>80100</v>
       </c>
       <c r="H61" s="3">
-        <v>51600</v>
+        <v>51500</v>
       </c>
       <c r="I61" s="3">
-        <v>53200</v>
+        <v>52500</v>
       </c>
       <c r="J61" s="3">
+        <v>54100</v>
+      </c>
+      <c r="K61" s="3">
         <v>54600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>44700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>37100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>41200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>45900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>69800</v>
+        <v>73600</v>
       </c>
       <c r="E62" s="3">
-        <v>69800</v>
+        <v>71000</v>
       </c>
       <c r="F62" s="3">
+        <v>71000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>71700</v>
+      </c>
+      <c r="H62" s="3">
+        <v>72300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>72300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>71700</v>
+      </c>
+      <c r="K62" s="3">
         <v>70500</v>
       </c>
-      <c r="G62" s="3">
-        <v>71100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>71100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>70500</v>
-      </c>
-      <c r="J62" s="3">
-        <v>70500</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>68100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>66000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>68600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>71900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>403400</v>
+        <v>463400</v>
       </c>
       <c r="E66" s="3">
-        <v>572900</v>
+        <v>410300</v>
       </c>
       <c r="F66" s="3">
-        <v>425700</v>
+        <v>582700</v>
       </c>
       <c r="G66" s="3">
-        <v>312100</v>
+        <v>433000</v>
       </c>
       <c r="H66" s="3">
-        <v>345700</v>
+        <v>317500</v>
       </c>
       <c r="I66" s="3">
-        <v>383900</v>
+        <v>351600</v>
       </c>
       <c r="J66" s="3">
+        <v>390500</v>
+      </c>
+      <c r="K66" s="3">
         <v>317200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>290300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>271200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>424800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>412500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>132800</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2128400</v>
+        <v>2121100</v>
       </c>
       <c r="E72" s="3">
-        <v>2033300</v>
+        <v>2164800</v>
       </c>
       <c r="F72" s="3">
-        <v>1741000</v>
+        <v>2068100</v>
       </c>
       <c r="G72" s="3">
-        <v>1494800</v>
+        <v>1770700</v>
       </c>
       <c r="H72" s="3">
-        <v>1424800</v>
+        <v>1520400</v>
       </c>
       <c r="I72" s="3">
-        <v>1311500</v>
+        <v>1449200</v>
       </c>
       <c r="J72" s="3">
+        <v>1333900</v>
+      </c>
+      <c r="K72" s="3">
         <v>1160900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1100700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>960400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>912000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>877200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>372200</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3902100</v>
+        <v>3932500</v>
       </c>
       <c r="E76" s="3">
-        <v>3790600</v>
+        <v>3968800</v>
       </c>
       <c r="F76" s="3">
-        <v>3481300</v>
+        <v>3855400</v>
       </c>
       <c r="G76" s="3">
-        <v>3230600</v>
+        <v>3540800</v>
       </c>
       <c r="H76" s="3">
-        <v>3156300</v>
+        <v>3285800</v>
       </c>
       <c r="I76" s="3">
-        <v>3026700</v>
+        <v>3210200</v>
       </c>
       <c r="J76" s="3">
+        <v>3078400</v>
+      </c>
+      <c r="K76" s="3">
         <v>2879800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2758000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2564300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2577700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2621500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2112000</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>83000</v>
+        <v>32700</v>
       </c>
       <c r="E81" s="3">
-        <v>367200</v>
+        <v>84500</v>
       </c>
       <c r="F81" s="3">
-        <v>268900</v>
+        <v>373400</v>
       </c>
       <c r="G81" s="3">
-        <v>66100</v>
+        <v>273500</v>
       </c>
       <c r="H81" s="3">
-        <v>101800</v>
+        <v>67300</v>
       </c>
       <c r="I81" s="3">
-        <v>126600</v>
+        <v>103600</v>
       </c>
       <c r="J81" s="3">
+        <v>128700</v>
+      </c>
+      <c r="K81" s="3">
         <v>43500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>150400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>77900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>73900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>495500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>56600</v>
+        <v>467900</v>
       </c>
       <c r="E89" s="3">
-        <v>279800</v>
+        <v>57600</v>
       </c>
       <c r="F89" s="3">
-        <v>136400</v>
+        <v>284600</v>
       </c>
       <c r="G89" s="3">
-        <v>83500</v>
+        <v>138700</v>
       </c>
       <c r="H89" s="3">
-        <v>34300</v>
+        <v>84900</v>
       </c>
       <c r="I89" s="3">
-        <v>63600</v>
+        <v>34900</v>
       </c>
       <c r="J89" s="3">
+        <v>64600</v>
+      </c>
+      <c r="K89" s="3">
         <v>50500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>162600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-107000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>708400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>321500</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15600</v>
+        <v>-104000</v>
       </c>
       <c r="E91" s="3">
-        <v>-11700</v>
+        <v>-110000</v>
       </c>
       <c r="F91" s="3">
-        <v>-9700</v>
+        <v>-82000</v>
       </c>
       <c r="G91" s="3">
-        <v>-8100</v>
+        <v>-68000</v>
       </c>
       <c r="H91" s="3">
-        <v>-9700</v>
+        <v>-57000</v>
       </c>
       <c r="I91" s="3">
-        <v>-10900</v>
+        <v>-68000</v>
       </c>
       <c r="J91" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-11200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-19300</v>
+        <v>-1900</v>
       </c>
       <c r="E94" s="3">
-        <v>-196500</v>
+        <v>-19700</v>
       </c>
       <c r="F94" s="3">
-        <v>-81900</v>
+        <v>-199900</v>
       </c>
       <c r="G94" s="3">
-        <v>-94800</v>
+        <v>-83300</v>
       </c>
       <c r="H94" s="3">
-        <v>-43500</v>
+        <v>-96500</v>
       </c>
       <c r="I94" s="3">
-        <v>-230500</v>
+        <v>-44300</v>
       </c>
       <c r="J94" s="3">
+        <v>-234400</v>
+      </c>
+      <c r="K94" s="3">
         <v>219700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-79500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-95800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-357800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>134800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>18600</v>
+        <v>-88400</v>
       </c>
       <c r="E100" s="3">
-        <v>-91300</v>
+        <v>18900</v>
       </c>
       <c r="F100" s="3">
-        <v>-30400</v>
+        <v>-92900</v>
       </c>
       <c r="G100" s="3">
-        <v>-9100</v>
+        <v>-31000</v>
       </c>
       <c r="H100" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I100" s="3">
         <v>2300</v>
       </c>
-      <c r="I100" s="3">
-        <v>3400</v>
-      </c>
       <c r="J100" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-34100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-30200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-124700</v>
+        <v>-31200</v>
       </c>
       <c r="E101" s="3">
-        <v>87700</v>
+        <v>-126800</v>
       </c>
       <c r="F101" s="3">
-        <v>81900</v>
+        <v>89200</v>
       </c>
       <c r="G101" s="3">
-        <v>36700</v>
+        <v>83300</v>
       </c>
       <c r="H101" s="3">
-        <v>39400</v>
+        <v>37300</v>
       </c>
       <c r="I101" s="3">
-        <v>57200</v>
+        <v>40100</v>
       </c>
       <c r="J101" s="3">
+        <v>58100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-10700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>33800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-20500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-34200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-14700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-68800</v>
+        <v>346400</v>
       </c>
       <c r="E102" s="3">
-        <v>79800</v>
+        <v>-70000</v>
       </c>
       <c r="F102" s="3">
-        <v>105900</v>
+        <v>81100</v>
       </c>
       <c r="G102" s="3">
-        <v>16200</v>
+        <v>107700</v>
       </c>
       <c r="H102" s="3">
-        <v>32400</v>
+        <v>16500</v>
       </c>
       <c r="I102" s="3">
-        <v>-106400</v>
+        <v>33000</v>
       </c>
       <c r="J102" s="3">
+        <v>-108200</v>
+      </c>
+      <c r="K102" s="3">
         <v>225400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>86700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-218900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>319100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>115000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>332800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GMAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GMAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>GMAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,125 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>412800</v>
+        <v>610800</v>
       </c>
       <c r="E8" s="3">
-        <v>756000</v>
+        <v>415300</v>
       </c>
       <c r="F8" s="3">
-        <v>591100</v>
+        <v>760500</v>
       </c>
       <c r="G8" s="3">
-        <v>457300</v>
+        <v>594700</v>
       </c>
       <c r="H8" s="3">
-        <v>306500</v>
+        <v>460100</v>
       </c>
       <c r="I8" s="3">
-        <v>378800</v>
+        <v>308300</v>
       </c>
       <c r="J8" s="3">
+        <v>381100</v>
+      </c>
+      <c r="K8" s="3">
         <v>334100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>280400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>217000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>274100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>240500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>799600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>130800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>251800</v>
+        <v>269600</v>
       </c>
       <c r="E12" s="3">
-        <v>237300</v>
+        <v>253300</v>
       </c>
       <c r="F12" s="3">
-        <v>214900</v>
+        <v>238800</v>
       </c>
       <c r="G12" s="3">
-        <v>185400</v>
+        <v>216200</v>
       </c>
       <c r="H12" s="3">
-        <v>166800</v>
+        <v>186500</v>
       </c>
       <c r="I12" s="3">
-        <v>187700</v>
+        <v>167800</v>
       </c>
       <c r="J12" s="3">
+        <v>188900</v>
+      </c>
+      <c r="K12" s="3">
         <v>161100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>131000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>116400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>124200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>100600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>113700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>349600</v>
+        <v>393000</v>
       </c>
       <c r="E17" s="3">
-        <v>370500</v>
+        <v>351700</v>
       </c>
       <c r="F17" s="3">
-        <v>311800</v>
+        <v>372800</v>
       </c>
       <c r="G17" s="3">
-        <v>277000</v>
+        <v>313700</v>
       </c>
       <c r="H17" s="3">
-        <v>232100</v>
+        <v>278600</v>
       </c>
       <c r="I17" s="3">
-        <v>261800</v>
+        <v>233500</v>
       </c>
       <c r="J17" s="3">
+        <v>263400</v>
+      </c>
+      <c r="K17" s="3">
         <v>205400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>168500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>144000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>155200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>120800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>139900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>120400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>63200</v>
+        <v>217800</v>
       </c>
       <c r="E18" s="3">
-        <v>385400</v>
+        <v>63600</v>
       </c>
       <c r="F18" s="3">
-        <v>279300</v>
+        <v>387800</v>
       </c>
       <c r="G18" s="3">
-        <v>180400</v>
+        <v>281000</v>
       </c>
       <c r="H18" s="3">
-        <v>74300</v>
+        <v>181400</v>
       </c>
       <c r="I18" s="3">
-        <v>117000</v>
+        <v>74800</v>
       </c>
       <c r="J18" s="3">
+        <v>117700</v>
+      </c>
+      <c r="K18" s="3">
         <v>128700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>111900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>73000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>119000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>119700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>659700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,57 +1211,61 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-21000</v>
+        <v>33900</v>
       </c>
       <c r="E20" s="3">
-        <v>-289000</v>
+        <v>-21100</v>
       </c>
       <c r="F20" s="3">
-        <v>194800</v>
+        <v>-290700</v>
       </c>
       <c r="G20" s="3">
-        <v>180500</v>
+        <v>196000</v>
       </c>
       <c r="H20" s="3">
+        <v>181600</v>
+      </c>
+      <c r="I20" s="3">
         <v>14800</v>
       </c>
-      <c r="I20" s="3">
-        <v>23100</v>
-      </c>
       <c r="J20" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K20" s="3">
         <v>41200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-51500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>122800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-44700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-25700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-24600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>45300</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
@@ -1266,34 +1303,37 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>900</v>
       </c>
       <c r="G22" s="3">
         <v>900</v>
       </c>
       <c r="H22" s="3">
+        <v>900</v>
+      </c>
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>400</v>
       </c>
       <c r="L22" s="3">
         <v>400</v>
@@ -1305,101 +1345,110 @@
         <v>400</v>
       </c>
       <c r="O22" s="3">
+        <v>400</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>41400</v>
+        <v>250700</v>
       </c>
       <c r="E23" s="3">
-        <v>95700</v>
+        <v>41600</v>
       </c>
       <c r="F23" s="3">
-        <v>473200</v>
+        <v>96300</v>
       </c>
       <c r="G23" s="3">
-        <v>360000</v>
+        <v>476100</v>
       </c>
       <c r="H23" s="3">
-        <v>88500</v>
+        <v>362100</v>
       </c>
       <c r="I23" s="3">
-        <v>139700</v>
+        <v>89000</v>
       </c>
       <c r="J23" s="3">
+        <v>140600</v>
+      </c>
+      <c r="K23" s="3">
         <v>169400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>60000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>195400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>73900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>93600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>634900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E24" s="3">
         <v>8700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11300</v>
       </c>
-      <c r="F24" s="3">
-        <v>99800</v>
-      </c>
       <c r="G24" s="3">
-        <v>86500</v>
+        <v>100400</v>
       </c>
       <c r="H24" s="3">
-        <v>21300</v>
+        <v>87000</v>
       </c>
       <c r="I24" s="3">
-        <v>36200</v>
+        <v>21400</v>
       </c>
       <c r="J24" s="3">
+        <v>36400</v>
+      </c>
+      <c r="K24" s="3">
         <v>40600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>45000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>19700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>139400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>32700</v>
+        <v>197400</v>
       </c>
       <c r="E26" s="3">
-        <v>84500</v>
+        <v>32900</v>
       </c>
       <c r="F26" s="3">
-        <v>373400</v>
+        <v>85000</v>
       </c>
       <c r="G26" s="3">
-        <v>273500</v>
+        <v>375700</v>
       </c>
       <c r="H26" s="3">
-        <v>67300</v>
+        <v>275100</v>
       </c>
       <c r="I26" s="3">
-        <v>103600</v>
+        <v>67700</v>
       </c>
       <c r="J26" s="3">
+        <v>104200</v>
+      </c>
+      <c r="K26" s="3">
         <v>128700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>43500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>150400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>77900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>73900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>495500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>32700</v>
+        <v>197400</v>
       </c>
       <c r="E27" s="3">
-        <v>84500</v>
+        <v>32900</v>
       </c>
       <c r="F27" s="3">
-        <v>373400</v>
+        <v>85000</v>
       </c>
       <c r="G27" s="3">
-        <v>273500</v>
+        <v>375700</v>
       </c>
       <c r="H27" s="3">
-        <v>67300</v>
+        <v>275100</v>
       </c>
       <c r="I27" s="3">
-        <v>103600</v>
+        <v>67700</v>
       </c>
       <c r="J27" s="3">
+        <v>104200</v>
+      </c>
+      <c r="K27" s="3">
         <v>128700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>43500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>150400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>77900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>73900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>495500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>21000</v>
+        <v>-33900</v>
       </c>
       <c r="E32" s="3">
-        <v>289000</v>
+        <v>21100</v>
       </c>
       <c r="F32" s="3">
-        <v>-194800</v>
+        <v>290700</v>
       </c>
       <c r="G32" s="3">
-        <v>-180500</v>
+        <v>-196000</v>
       </c>
       <c r="H32" s="3">
+        <v>-181600</v>
+      </c>
+      <c r="I32" s="3">
         <v>-14800</v>
       </c>
-      <c r="I32" s="3">
-        <v>-23100</v>
-      </c>
       <c r="J32" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-41200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>51500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-122800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>44700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>25700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>24600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-41800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>32700</v>
+        <v>197400</v>
       </c>
       <c r="E33" s="3">
-        <v>84500</v>
+        <v>32900</v>
       </c>
       <c r="F33" s="3">
-        <v>373400</v>
+        <v>85000</v>
       </c>
       <c r="G33" s="3">
-        <v>273500</v>
+        <v>375700</v>
       </c>
       <c r="H33" s="3">
-        <v>67300</v>
+        <v>275100</v>
       </c>
       <c r="I33" s="3">
-        <v>103600</v>
+        <v>67700</v>
       </c>
       <c r="J33" s="3">
+        <v>104200</v>
+      </c>
+      <c r="K33" s="3">
         <v>128700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>43500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>150400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>77900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>73900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>495500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>32700</v>
+        <v>197400</v>
       </c>
       <c r="E35" s="3">
-        <v>84500</v>
+        <v>32900</v>
       </c>
       <c r="F35" s="3">
-        <v>373400</v>
+        <v>85000</v>
       </c>
       <c r="G35" s="3">
-        <v>273500</v>
+        <v>375700</v>
       </c>
       <c r="H35" s="3">
-        <v>67300</v>
+        <v>275100</v>
       </c>
       <c r="I35" s="3">
-        <v>103600</v>
+        <v>67700</v>
       </c>
       <c r="J35" s="3">
+        <v>104200</v>
+      </c>
+      <c r="K35" s="3">
         <v>128700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>43500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>150400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>77900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>73900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>495500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,163 +2053,173 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1777200</v>
+        <v>1582200</v>
       </c>
       <c r="E41" s="3">
-        <v>1430800</v>
+        <v>1787900</v>
       </c>
       <c r="F41" s="3">
-        <v>1500800</v>
+        <v>1439400</v>
       </c>
       <c r="G41" s="3">
-        <v>1419700</v>
+        <v>1509900</v>
       </c>
       <c r="H41" s="3">
-        <v>1311900</v>
+        <v>1428200</v>
       </c>
       <c r="I41" s="3">
-        <v>1295500</v>
+        <v>1319800</v>
       </c>
       <c r="J41" s="3">
+        <v>1303200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1262500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1347600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1083200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>973600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1240500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>968900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>813100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1772600</v>
+        <v>2038500</v>
       </c>
       <c r="E42" s="3">
-        <v>1797900</v>
+        <v>1783200</v>
       </c>
       <c r="F42" s="3">
-        <v>1939600</v>
+        <v>1808700</v>
       </c>
       <c r="G42" s="3">
-        <v>1706500</v>
+        <v>1951300</v>
       </c>
       <c r="H42" s="3">
-        <v>1578900</v>
+        <v>1716800</v>
       </c>
       <c r="I42" s="3">
-        <v>1501400</v>
+        <v>1588400</v>
       </c>
       <c r="J42" s="3">
+        <v>1510400</v>
+      </c>
+      <c r="K42" s="3">
         <v>1448300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1194200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1398700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1182700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1196600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>906100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1088000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>533300</v>
+        <v>700400</v>
       </c>
       <c r="E43" s="3">
-        <v>875400</v>
+        <v>536500</v>
       </c>
       <c r="F43" s="3">
-        <v>716100</v>
+        <v>880700</v>
       </c>
       <c r="G43" s="3">
-        <v>560600</v>
+        <v>720400</v>
       </c>
       <c r="H43" s="3">
-        <v>460900</v>
+        <v>564000</v>
       </c>
       <c r="I43" s="3">
-        <v>491500</v>
+        <v>463700</v>
       </c>
       <c r="J43" s="3">
+        <v>494400</v>
+      </c>
+      <c r="K43" s="3">
         <v>464400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>345400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>254500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>363700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>283900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>932800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>7400</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,184 +2286,199 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4083000</v>
+        <v>4328500</v>
       </c>
       <c r="E46" s="3">
-        <v>4104200</v>
+        <v>4107600</v>
       </c>
       <c r="F46" s="3">
-        <v>4156500</v>
+        <v>4128900</v>
       </c>
       <c r="G46" s="3">
-        <v>3686800</v>
+        <v>4181500</v>
       </c>
       <c r="H46" s="3">
-        <v>3351800</v>
+        <v>3708900</v>
       </c>
       <c r="I46" s="3">
-        <v>3288300</v>
+        <v>3372000</v>
       </c>
       <c r="J46" s="3">
+        <v>3308100</v>
+      </c>
+      <c r="K46" s="3">
         <v>3175200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2887200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2736400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2520100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2721000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2807800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2066900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>26500</v>
+        <v>31100</v>
       </c>
       <c r="E47" s="3">
-        <v>26200</v>
+        <v>26600</v>
       </c>
       <c r="F47" s="3">
-        <v>28100</v>
+        <v>26300</v>
       </c>
       <c r="G47" s="3">
-        <v>38600</v>
+        <v>28200</v>
       </c>
       <c r="H47" s="3">
-        <v>38500</v>
+        <v>38800</v>
       </c>
       <c r="I47" s="3">
-        <v>57600</v>
+        <v>38700</v>
       </c>
       <c r="J47" s="3">
+        <v>57900</v>
+      </c>
+      <c r="K47" s="3">
         <v>89700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>111800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>128600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>147700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>93100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>24100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>230800</v>
+        <v>237700</v>
       </c>
       <c r="E48" s="3">
-        <v>191200</v>
+        <v>232200</v>
       </c>
       <c r="F48" s="3">
-        <v>186400</v>
+        <v>192400</v>
       </c>
       <c r="G48" s="3">
-        <v>179100</v>
+        <v>187500</v>
       </c>
       <c r="H48" s="3">
-        <v>141000</v>
+        <v>180100</v>
       </c>
       <c r="I48" s="3">
-        <v>141000</v>
+        <v>141900</v>
       </c>
       <c r="J48" s="3">
+        <v>141900</v>
+      </c>
+      <c r="K48" s="3">
         <v>138400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>130700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>115600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>98700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>101800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>106500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>72000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19100</v>
+        <v>18800</v>
       </c>
       <c r="E49" s="3">
-        <v>21100</v>
+        <v>19200</v>
       </c>
       <c r="F49" s="3">
-        <v>28900</v>
+        <v>21200</v>
       </c>
       <c r="G49" s="3">
-        <v>31200</v>
+        <v>29100</v>
       </c>
       <c r="H49" s="3">
-        <v>33800</v>
+        <v>31400</v>
       </c>
       <c r="I49" s="3">
-        <v>36700</v>
+        <v>34000</v>
       </c>
       <c r="J49" s="3">
+        <v>37000</v>
+      </c>
+      <c r="K49" s="3">
         <v>39800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>42200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>43500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>45300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>53700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>60600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>36400</v>
+        <v>36700</v>
       </c>
       <c r="E52" s="3">
-        <v>36400</v>
+        <v>36700</v>
       </c>
       <c r="F52" s="3">
-        <v>38200</v>
+        <v>36700</v>
       </c>
       <c r="G52" s="3">
-        <v>38200</v>
+        <v>38400</v>
       </c>
       <c r="H52" s="3">
-        <v>38200</v>
+        <v>38400</v>
       </c>
       <c r="I52" s="3">
-        <v>38200</v>
+        <v>38400</v>
       </c>
       <c r="J52" s="3">
+        <v>38400</v>
+      </c>
+      <c r="K52" s="3">
         <v>25900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>25200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>24300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>23700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>32900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>35100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4395900</v>
+        <v>4652800</v>
       </c>
       <c r="E54" s="3">
-        <v>4379100</v>
+        <v>4422300</v>
       </c>
       <c r="F54" s="3">
-        <v>4438100</v>
+        <v>4405400</v>
       </c>
       <c r="G54" s="3">
-        <v>3973900</v>
+        <v>4464800</v>
       </c>
       <c r="H54" s="3">
-        <v>3603300</v>
+        <v>3997800</v>
       </c>
       <c r="I54" s="3">
-        <v>3561800</v>
+        <v>3625000</v>
       </c>
       <c r="J54" s="3">
+        <v>3583200</v>
+      </c>
+      <c r="K54" s="3">
         <v>3469000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3197100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3048300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2835500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3002500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3034000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2244800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,228 +2794,246 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E58" s="3">
         <v>12900</v>
       </c>
-      <c r="E58" s="3">
-        <v>10700</v>
-      </c>
       <c r="F58" s="3">
-        <v>11400</v>
+        <v>10800</v>
       </c>
       <c r="G58" s="3">
+        <v>11500</v>
+      </c>
+      <c r="H58" s="3">
         <v>11600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>269900</v>
+        <v>278100</v>
       </c>
       <c r="E59" s="3">
-        <v>253000</v>
+        <v>271500</v>
       </c>
       <c r="F59" s="3">
-        <v>420700</v>
+        <v>254500</v>
       </c>
       <c r="G59" s="3">
-        <v>269600</v>
+        <v>423300</v>
       </c>
       <c r="H59" s="3">
-        <v>185000</v>
+        <v>271200</v>
       </c>
       <c r="I59" s="3">
-        <v>217800</v>
+        <v>186100</v>
       </c>
       <c r="J59" s="3">
+        <v>219100</v>
+      </c>
+      <c r="K59" s="3">
         <v>255600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>183700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>170300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>162400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>309200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>288400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>104700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>282800</v>
+        <v>290000</v>
       </c>
       <c r="E60" s="3">
-        <v>263700</v>
+        <v>284500</v>
       </c>
       <c r="F60" s="3">
-        <v>432200</v>
+        <v>265200</v>
       </c>
       <c r="G60" s="3">
-        <v>281200</v>
+        <v>434800</v>
       </c>
       <c r="H60" s="3">
-        <v>193700</v>
+        <v>282900</v>
       </c>
       <c r="I60" s="3">
-        <v>226800</v>
+        <v>194800</v>
       </c>
       <c r="J60" s="3">
+        <v>228100</v>
+      </c>
+      <c r="K60" s="3">
         <v>264700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>192100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>177500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>168000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>315000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>294700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>108600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>107000</v>
+        <v>104900</v>
       </c>
       <c r="E61" s="3">
-        <v>75600</v>
+        <v>107700</v>
       </c>
       <c r="F61" s="3">
-        <v>79500</v>
+        <v>76100</v>
       </c>
       <c r="G61" s="3">
-        <v>80100</v>
+        <v>80000</v>
       </c>
       <c r="H61" s="3">
-        <v>51500</v>
+        <v>80600</v>
       </c>
       <c r="I61" s="3">
-        <v>52500</v>
+        <v>51800</v>
       </c>
       <c r="J61" s="3">
+        <v>52800</v>
+      </c>
+      <c r="K61" s="3">
         <v>54100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>54600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>44700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>37100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>41200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>45900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>73600</v>
+        <v>74100</v>
       </c>
       <c r="E62" s="3">
-        <v>71000</v>
+        <v>74100</v>
       </c>
       <c r="F62" s="3">
-        <v>71000</v>
+        <v>71400</v>
       </c>
       <c r="G62" s="3">
+        <v>71400</v>
+      </c>
+      <c r="H62" s="3">
+        <v>72200</v>
+      </c>
+      <c r="I62" s="3">
+        <v>72800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>72800</v>
+      </c>
+      <c r="K62" s="3">
         <v>71700</v>
       </c>
-      <c r="H62" s="3">
-        <v>72300</v>
-      </c>
-      <c r="I62" s="3">
-        <v>72300</v>
-      </c>
-      <c r="J62" s="3">
-        <v>71700</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>70500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>68100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>66000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>68600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>71900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>463400</v>
+        <v>468900</v>
       </c>
       <c r="E66" s="3">
-        <v>410300</v>
+        <v>466200</v>
       </c>
       <c r="F66" s="3">
-        <v>582700</v>
+        <v>412800</v>
       </c>
       <c r="G66" s="3">
-        <v>433000</v>
+        <v>586200</v>
       </c>
       <c r="H66" s="3">
-        <v>317500</v>
+        <v>435600</v>
       </c>
       <c r="I66" s="3">
-        <v>351600</v>
+        <v>319400</v>
       </c>
       <c r="J66" s="3">
+        <v>353700</v>
+      </c>
+      <c r="K66" s="3">
         <v>390500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>317200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>290300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>271200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>424800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>412500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>132800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2121100</v>
+        <v>2352000</v>
       </c>
       <c r="E72" s="3">
-        <v>2164800</v>
+        <v>2133900</v>
       </c>
       <c r="F72" s="3">
-        <v>2068100</v>
+        <v>2177800</v>
       </c>
       <c r="G72" s="3">
-        <v>1770700</v>
+        <v>2080500</v>
       </c>
       <c r="H72" s="3">
-        <v>1520400</v>
+        <v>1781400</v>
       </c>
       <c r="I72" s="3">
-        <v>1449200</v>
+        <v>1529500</v>
       </c>
       <c r="J72" s="3">
+        <v>1457900</v>
+      </c>
+      <c r="K72" s="3">
         <v>1333900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1160900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1100700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>960400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>912000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>877200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>372200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3932500</v>
+        <v>4183900</v>
       </c>
       <c r="E76" s="3">
-        <v>3968800</v>
+        <v>3956100</v>
       </c>
       <c r="F76" s="3">
-        <v>3855400</v>
+        <v>3992700</v>
       </c>
       <c r="G76" s="3">
-        <v>3540800</v>
+        <v>3878600</v>
       </c>
       <c r="H76" s="3">
-        <v>3285800</v>
+        <v>3562100</v>
       </c>
       <c r="I76" s="3">
-        <v>3210200</v>
+        <v>3305600</v>
       </c>
       <c r="J76" s="3">
+        <v>3229500</v>
+      </c>
+      <c r="K76" s="3">
         <v>3078400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2879800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2758000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2564300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2577700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2621500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2112000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>32700</v>
+        <v>197400</v>
       </c>
       <c r="E81" s="3">
-        <v>84500</v>
+        <v>32900</v>
       </c>
       <c r="F81" s="3">
-        <v>373400</v>
+        <v>85000</v>
       </c>
       <c r="G81" s="3">
-        <v>273500</v>
+        <v>375700</v>
       </c>
       <c r="H81" s="3">
-        <v>67300</v>
+        <v>275100</v>
       </c>
       <c r="I81" s="3">
-        <v>103600</v>
+        <v>67700</v>
       </c>
       <c r="J81" s="3">
+        <v>104200</v>
+      </c>
+      <c r="K81" s="3">
         <v>128700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>43500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>150400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>77900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>73900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>495500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>467900</v>
+        <v>63400</v>
       </c>
       <c r="E89" s="3">
-        <v>57600</v>
+        <v>470700</v>
       </c>
       <c r="F89" s="3">
-        <v>284600</v>
+        <v>57900</v>
       </c>
       <c r="G89" s="3">
-        <v>138700</v>
+        <v>286300</v>
       </c>
       <c r="H89" s="3">
-        <v>84900</v>
+        <v>139500</v>
       </c>
       <c r="I89" s="3">
-        <v>34900</v>
+        <v>85400</v>
       </c>
       <c r="J89" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K89" s="3">
         <v>64600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>50500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>162600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-107000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>708400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>321500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-104000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-110000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-82000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-68000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-57000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-68000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-77000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-21300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-267000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1900</v>
       </c>
-      <c r="E94" s="3">
-        <v>-19700</v>
-      </c>
       <c r="F94" s="3">
-        <v>-199900</v>
+        <v>-19800</v>
       </c>
       <c r="G94" s="3">
-        <v>-83300</v>
+        <v>-201100</v>
       </c>
       <c r="H94" s="3">
-        <v>-96500</v>
+        <v>-83800</v>
       </c>
       <c r="I94" s="3">
-        <v>-44300</v>
+        <v>-97000</v>
       </c>
       <c r="J94" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-234400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>219700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-79500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-95800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-357800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>134800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-88400</v>
+        <v>1000</v>
       </c>
       <c r="E100" s="3">
-        <v>18900</v>
+        <v>-88900</v>
       </c>
       <c r="F100" s="3">
-        <v>-92900</v>
+        <v>19100</v>
       </c>
       <c r="G100" s="3">
-        <v>-31000</v>
+        <v>-93400</v>
       </c>
       <c r="H100" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="I100" s="3">
         <v>-9300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-34100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-30200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-31200</v>
+        <v>-3200</v>
       </c>
       <c r="E101" s="3">
-        <v>-126800</v>
+        <v>-31400</v>
       </c>
       <c r="F101" s="3">
-        <v>89200</v>
+        <v>-127600</v>
       </c>
       <c r="G101" s="3">
-        <v>83300</v>
+        <v>89800</v>
       </c>
       <c r="H101" s="3">
-        <v>37300</v>
+        <v>83800</v>
       </c>
       <c r="I101" s="3">
-        <v>40100</v>
+        <v>37500</v>
       </c>
       <c r="J101" s="3">
+        <v>40300</v>
+      </c>
+      <c r="K101" s="3">
         <v>58100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-10700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>33800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-20500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-34200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-14700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>346400</v>
+        <v>-205700</v>
       </c>
       <c r="E102" s="3">
-        <v>-70000</v>
+        <v>348500</v>
       </c>
       <c r="F102" s="3">
-        <v>81100</v>
+        <v>-70400</v>
       </c>
       <c r="G102" s="3">
-        <v>107700</v>
+        <v>81600</v>
       </c>
       <c r="H102" s="3">
-        <v>16500</v>
+        <v>108400</v>
       </c>
       <c r="I102" s="3">
-        <v>33000</v>
+        <v>16600</v>
       </c>
       <c r="J102" s="3">
+        <v>33200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-108200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>225400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>86700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-218900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>319100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>115000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>332800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GMAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GMAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>GMAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,137 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>610800</v>
+        <v>690300</v>
       </c>
       <c r="E8" s="3">
+        <v>610900</v>
+      </c>
+      <c r="F8" s="3">
         <v>415300</v>
       </c>
-      <c r="F8" s="3">
-        <v>760500</v>
-      </c>
       <c r="G8" s="3">
+        <v>760600</v>
+      </c>
+      <c r="H8" s="3">
         <v>594700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>460100</v>
       </c>
-      <c r="I8" s="3">
-        <v>308300</v>
-      </c>
       <c r="J8" s="3">
+        <v>308400</v>
+      </c>
+      <c r="K8" s="3">
         <v>381100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>334100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>280400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>217000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>274100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>240500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>799600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>130800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
+      <c r="D9" s="3">
+        <v>14600</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>5</v>
@@ -829,13 +836,16 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
+      <c r="D10" s="3">
+        <v>675800</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>5</v>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>303800</v>
+      </c>
+      <c r="E12" s="3">
         <v>269600</v>
       </c>
-      <c r="E12" s="3">
-        <v>253300</v>
-      </c>
       <c r="F12" s="3">
+        <v>253400</v>
+      </c>
+      <c r="G12" s="3">
         <v>238800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>216200</v>
       </c>
-      <c r="H12" s="3">
-        <v>186500</v>
-      </c>
       <c r="I12" s="3">
+        <v>186600</v>
+      </c>
+      <c r="J12" s="3">
         <v>167800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>188900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>161100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>131000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>116400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>124200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>100600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>113700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>440500</v>
+      </c>
+      <c r="E17" s="3">
         <v>393000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>351700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>372800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>313700</v>
       </c>
-      <c r="H17" s="3">
-        <v>278600</v>
-      </c>
       <c r="I17" s="3">
-        <v>233500</v>
+        <v>278700</v>
       </c>
       <c r="J17" s="3">
+        <v>233600</v>
+      </c>
+      <c r="K17" s="3">
         <v>263400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>205400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>168500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>144000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>155200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>120800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>139900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>120400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>249900</v>
+      </c>
+      <c r="E18" s="3">
         <v>217800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>63600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>387800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>281000</v>
       </c>
-      <c r="H18" s="3">
-        <v>181400</v>
-      </c>
       <c r="I18" s="3">
+        <v>181500</v>
+      </c>
+      <c r="J18" s="3">
         <v>74800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>117700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>128700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>111900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>73000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>119000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>119700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>659700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,55 +1245,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>144500</v>
+      </c>
+      <c r="E20" s="3">
         <v>33900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-21100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-290700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>196000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>181600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>14800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>23300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>41200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-51500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>122800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-44700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-25700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,37 +1343,40 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>900</v>
       </c>
       <c r="H22" s="3">
         <v>900</v>
       </c>
       <c r="I22" s="3">
+        <v>900</v>
+      </c>
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>400</v>
       </c>
       <c r="M22" s="3">
         <v>400</v>
@@ -1348,107 +1388,116 @@
         <v>400</v>
       </c>
       <c r="P22" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>393200</v>
+      </c>
+      <c r="E23" s="3">
         <v>250700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>41600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>96300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>476100</v>
       </c>
-      <c r="H23" s="3">
-        <v>362100</v>
-      </c>
       <c r="I23" s="3">
-        <v>89000</v>
+        <v>362200</v>
       </c>
       <c r="J23" s="3">
+        <v>89100</v>
+      </c>
+      <c r="K23" s="3">
         <v>140600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>169400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>60000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>195400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>73900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>93600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>634900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>83400</v>
+      </c>
+      <c r="E24" s="3">
         <v>53300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8700</v>
       </c>
-      <c r="F24" s="3">
-        <v>11300</v>
-      </c>
       <c r="G24" s="3">
+        <v>11400</v>
+      </c>
+      <c r="H24" s="3">
         <v>100400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>87000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>21400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>36400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>40600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>45000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>19700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>139400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>197400</v>
+        <v>309800</v>
       </c>
       <c r="E26" s="3">
+        <v>197500</v>
+      </c>
+      <c r="F26" s="3">
         <v>32900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>85000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>375700</v>
       </c>
-      <c r="H26" s="3">
-        <v>275100</v>
-      </c>
       <c r="I26" s="3">
+        <v>275200</v>
+      </c>
+      <c r="J26" s="3">
         <v>67700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>104200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>128700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>43500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>150400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>77900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>73900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>495500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>197400</v>
+        <v>309800</v>
       </c>
       <c r="E27" s="3">
+        <v>197500</v>
+      </c>
+      <c r="F27" s="3">
         <v>32900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>85000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>375700</v>
       </c>
-      <c r="H27" s="3">
-        <v>275100</v>
-      </c>
       <c r="I27" s="3">
+        <v>275200</v>
+      </c>
+      <c r="J27" s="3">
         <v>67700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>104200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>128700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>43500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>150400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>77900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>73900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>495500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-144500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-33900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>21100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>290700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-196000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-181600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-14800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-23300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-41200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>51500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-122800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>44700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>25700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>24600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-41800</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>197400</v>
+        <v>309800</v>
       </c>
       <c r="E33" s="3">
+        <v>197500</v>
+      </c>
+      <c r="F33" s="3">
         <v>32900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>85000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>375700</v>
       </c>
-      <c r="H33" s="3">
-        <v>275100</v>
-      </c>
       <c r="I33" s="3">
+        <v>275200</v>
+      </c>
+      <c r="J33" s="3">
         <v>67700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>104200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>128700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>43500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>150400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>77900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>73900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>495500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>197400</v>
+        <v>309800</v>
       </c>
       <c r="E35" s="3">
+        <v>197500</v>
+      </c>
+      <c r="F35" s="3">
         <v>32900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>85000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>375700</v>
       </c>
-      <c r="H35" s="3">
-        <v>275100</v>
-      </c>
       <c r="I35" s="3">
+        <v>275200</v>
+      </c>
+      <c r="J35" s="3">
         <v>67700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>104200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>128700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>43500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>150400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>77900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>73900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>495500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,157 +2140,167 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1582200</v>
+        <v>2077000</v>
       </c>
       <c r="E41" s="3">
-        <v>1787900</v>
+        <v>1582400</v>
       </c>
       <c r="F41" s="3">
-        <v>1439400</v>
+        <v>1788100</v>
       </c>
       <c r="G41" s="3">
-        <v>1509900</v>
+        <v>1439600</v>
       </c>
       <c r="H41" s="3">
-        <v>1428200</v>
+        <v>1510100</v>
       </c>
       <c r="I41" s="3">
-        <v>1319800</v>
+        <v>1428400</v>
       </c>
       <c r="J41" s="3">
+        <v>1320000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1303200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1262500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1347600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1083200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>973600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1240500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>968900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>813100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2038500</v>
+        <v>1928400</v>
       </c>
       <c r="E42" s="3">
-        <v>1783200</v>
+        <v>2038700</v>
       </c>
       <c r="F42" s="3">
-        <v>1808700</v>
+        <v>1783500</v>
       </c>
       <c r="G42" s="3">
-        <v>1951300</v>
+        <v>1809000</v>
       </c>
       <c r="H42" s="3">
-        <v>1716800</v>
+        <v>1951600</v>
       </c>
       <c r="I42" s="3">
-        <v>1588400</v>
+        <v>1717000</v>
       </c>
       <c r="J42" s="3">
+        <v>1588600</v>
+      </c>
+      <c r="K42" s="3">
         <v>1510400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1448300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1194200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1398700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1182700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1196600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>906100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1088000</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>700400</v>
+        <v>790500</v>
       </c>
       <c r="E43" s="3">
+        <v>700500</v>
+      </c>
+      <c r="F43" s="3">
         <v>536500</v>
       </c>
-      <c r="F43" s="3">
-        <v>880700</v>
-      </c>
       <c r="G43" s="3">
-        <v>720400</v>
+        <v>880800</v>
       </c>
       <c r="H43" s="3">
+        <v>720500</v>
+      </c>
+      <c r="I43" s="3">
         <v>564000</v>
       </c>
-      <c r="I43" s="3">
-        <v>463700</v>
-      </c>
       <c r="J43" s="3">
+        <v>463800</v>
+      </c>
+      <c r="K43" s="3">
         <v>494400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>464400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>345400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>254500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>363700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>283900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>932800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E44" s="3">
         <v>7400</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>5</v>
@@ -2221,8 +2317,8 @@
       <c r="J44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,196 +2388,211 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4328500</v>
+        <v>4806100</v>
       </c>
       <c r="E46" s="3">
-        <v>4107600</v>
+        <v>4329100</v>
       </c>
       <c r="F46" s="3">
-        <v>4128900</v>
+        <v>4108200</v>
       </c>
       <c r="G46" s="3">
-        <v>4181500</v>
+        <v>4129400</v>
       </c>
       <c r="H46" s="3">
-        <v>3708900</v>
+        <v>4182100</v>
       </c>
       <c r="I46" s="3">
-        <v>3372000</v>
+        <v>3709500</v>
       </c>
       <c r="J46" s="3">
+        <v>3372400</v>
+      </c>
+      <c r="K46" s="3">
         <v>3308100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3175200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2887200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2736400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2520100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2721000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2807800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2066900</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E47" s="3">
         <v>31100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>26600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>26300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>28200</v>
       </c>
-      <c r="H47" s="3">
-        <v>38800</v>
-      </c>
       <c r="I47" s="3">
+        <v>38900</v>
+      </c>
+      <c r="J47" s="3">
         <v>38700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>57900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>89700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>111800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>128600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>147700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>93100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>24100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>237700</v>
+        <v>240300</v>
       </c>
       <c r="E48" s="3">
+        <v>237800</v>
+      </c>
+      <c r="F48" s="3">
         <v>232200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>192400</v>
       </c>
-      <c r="G48" s="3">
-        <v>187500</v>
-      </c>
       <c r="H48" s="3">
-        <v>180100</v>
+        <v>187600</v>
       </c>
       <c r="I48" s="3">
-        <v>141900</v>
+        <v>180200</v>
       </c>
       <c r="J48" s="3">
         <v>141900</v>
       </c>
       <c r="K48" s="3">
+        <v>141900</v>
+      </c>
+      <c r="L48" s="3">
         <v>138400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>130700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>115600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>98700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>101800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>106500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>72000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E49" s="3">
         <v>18800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>19200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>21200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>29100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>31400</v>
       </c>
-      <c r="I49" s="3">
-        <v>34000</v>
-      </c>
       <c r="J49" s="3">
+        <v>34100</v>
+      </c>
+      <c r="K49" s="3">
         <v>37000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>39800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>42200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>43500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>45300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>53700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>60600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2586,7 +2706,7 @@
         <v>36700</v>
       </c>
       <c r="G52" s="3">
-        <v>38400</v>
+        <v>36700</v>
       </c>
       <c r="H52" s="3">
         <v>38400</v>
@@ -2598,28 +2718,31 @@
         <v>38400</v>
       </c>
       <c r="K52" s="3">
+        <v>38400</v>
+      </c>
+      <c r="L52" s="3">
         <v>25900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>25200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>24300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>23700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>32900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>35100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4652800</v>
+        <v>5127800</v>
       </c>
       <c r="E54" s="3">
-        <v>4422300</v>
+        <v>4653400</v>
       </c>
       <c r="F54" s="3">
-        <v>4405400</v>
+        <v>4422900</v>
       </c>
       <c r="G54" s="3">
-        <v>4464800</v>
+        <v>4406100</v>
       </c>
       <c r="H54" s="3">
-        <v>3997800</v>
+        <v>4465400</v>
       </c>
       <c r="I54" s="3">
-        <v>3625000</v>
+        <v>3998300</v>
       </c>
       <c r="J54" s="3">
+        <v>3625500</v>
+      </c>
+      <c r="K54" s="3">
         <v>3583200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3469000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3197100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3048300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2835500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3002500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3034000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2244800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,243 +2928,261 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E58" s="3">
         <v>11900</v>
       </c>
-      <c r="E58" s="3">
-        <v>12900</v>
-      </c>
       <c r="F58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="G58" s="3">
         <v>10800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>410200</v>
+      </c>
+      <c r="E59" s="3">
         <v>278100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>271500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>254500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>423300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>271200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>186100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>219100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>255600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>183700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>170300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>162400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>309200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>288400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>104700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>422300</v>
+      </c>
+      <c r="E60" s="3">
         <v>290000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>284500</v>
       </c>
-      <c r="F60" s="3">
-        <v>265200</v>
-      </c>
       <c r="G60" s="3">
+        <v>265300</v>
+      </c>
+      <c r="H60" s="3">
         <v>434800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>282900</v>
       </c>
-      <c r="I60" s="3">
-        <v>194800</v>
-      </c>
       <c r="J60" s="3">
+        <v>194900</v>
+      </c>
+      <c r="K60" s="3">
         <v>228100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>264700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>192100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>177500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>168000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>315000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>294700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>108600</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>103300</v>
+      </c>
+      <c r="E61" s="3">
         <v>104900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>107700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>76100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>80000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>80600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>51800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>52800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>54100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>54600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>44700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>37100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>41200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>45900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>74100</v>
+        <v>74800</v>
       </c>
       <c r="E62" s="3">
         <v>74100</v>
       </c>
       <c r="F62" s="3">
-        <v>71400</v>
+        <v>74100</v>
       </c>
       <c r="G62" s="3">
-        <v>71400</v>
+        <v>71500</v>
       </c>
       <c r="H62" s="3">
+        <v>71500</v>
+      </c>
+      <c r="I62" s="3">
         <v>72200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>72800</v>
       </c>
       <c r="J62" s="3">
         <v>72800</v>
       </c>
       <c r="K62" s="3">
+        <v>72800</v>
+      </c>
+      <c r="L62" s="3">
         <v>71700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>70500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>68100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>66000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>68600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>71900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>468900</v>
+        <v>600400</v>
       </c>
       <c r="E66" s="3">
+        <v>469000</v>
+      </c>
+      <c r="F66" s="3">
         <v>466200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>412800</v>
       </c>
-      <c r="G66" s="3">
-        <v>586200</v>
-      </c>
       <c r="H66" s="3">
-        <v>435600</v>
+        <v>586300</v>
       </c>
       <c r="I66" s="3">
+        <v>435700</v>
+      </c>
+      <c r="J66" s="3">
         <v>319400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>353700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>390500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>317200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>290300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>271200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>424800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>412500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>132800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2352000</v>
+        <v>2685100</v>
       </c>
       <c r="E72" s="3">
-        <v>2133900</v>
+        <v>2352300</v>
       </c>
       <c r="F72" s="3">
-        <v>2177800</v>
+        <v>2134200</v>
       </c>
       <c r="G72" s="3">
-        <v>2080500</v>
+        <v>2178100</v>
       </c>
       <c r="H72" s="3">
-        <v>1781400</v>
+        <v>2080800</v>
       </c>
       <c r="I72" s="3">
-        <v>1529500</v>
+        <v>1781600</v>
       </c>
       <c r="J72" s="3">
+        <v>1529700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1457900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1333900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1160900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1100700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>960400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>912000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>877200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>372200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4183900</v>
+        <v>4527400</v>
       </c>
       <c r="E76" s="3">
-        <v>3956100</v>
+        <v>4184400</v>
       </c>
       <c r="F76" s="3">
-        <v>3992700</v>
+        <v>3956700</v>
       </c>
       <c r="G76" s="3">
-        <v>3878600</v>
+        <v>3993200</v>
       </c>
       <c r="H76" s="3">
-        <v>3562100</v>
+        <v>3879100</v>
       </c>
       <c r="I76" s="3">
-        <v>3305600</v>
+        <v>3562600</v>
       </c>
       <c r="J76" s="3">
+        <v>3306100</v>
+      </c>
+      <c r="K76" s="3">
         <v>3229500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3078400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2879800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2758000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2564300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2577700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2621500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2112000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>197400</v>
+        <v>309800</v>
       </c>
       <c r="E81" s="3">
+        <v>197500</v>
+      </c>
+      <c r="F81" s="3">
         <v>32900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>85000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>375700</v>
       </c>
-      <c r="H81" s="3">
-        <v>275100</v>
-      </c>
       <c r="I81" s="3">
+        <v>275200</v>
+      </c>
+      <c r="J81" s="3">
         <v>67700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>104200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>128700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>43500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>150400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>77900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>73900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>495500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>296400</v>
+      </c>
+      <c r="E89" s="3">
         <v>63400</v>
       </c>
-      <c r="E89" s="3">
-        <v>470700</v>
-      </c>
       <c r="F89" s="3">
+        <v>470800</v>
+      </c>
+      <c r="G89" s="3">
         <v>57900</v>
       </c>
-      <c r="G89" s="3">
-        <v>286300</v>
-      </c>
       <c r="H89" s="3">
-        <v>139500</v>
+        <v>286400</v>
       </c>
       <c r="I89" s="3">
+        <v>139600</v>
+      </c>
+      <c r="J89" s="3">
         <v>85400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>35100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>64600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>50500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>162600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-107000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>708400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>321500</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-107000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-104000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-110000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-82000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-68000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-57000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-68000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-77000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-21300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>146700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-267000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-201100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-83800</v>
       </c>
-      <c r="I94" s="3">
-        <v>-97000</v>
-      </c>
       <c r="J94" s="3">
+        <v>-97100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-44500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-234400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>219700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-79500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-95800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-357800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>134800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-88900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>19100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-93400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-31100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-34100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-30200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-31400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-127600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>89800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>83800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>37500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>40300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>58100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-10700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>33800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-20500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-34200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-205700</v>
+        <v>494600</v>
       </c>
       <c r="E102" s="3">
+        <v>-205800</v>
+      </c>
+      <c r="F102" s="3">
         <v>348500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-70400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>81600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>108400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>33200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-108200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>225400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>86700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-218900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>319100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>115000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>332800</v>
       </c>
     </row>
